--- a/_ConfigExcels/Datas/player_attr_level.xlsx
+++ b/_ConfigExcels/Datas/player_attr_level.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>##var</t>
   </si>
@@ -56,7 +56,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>earth_hp</t>
+    <t>basic_hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic_atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +431,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -450,6 +458,9 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -461,6 +472,9 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -472,7 +486,9 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -482,6 +498,9 @@
       <c r="C4" s="2">
         <v>1000</v>
       </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
@@ -490,6 +509,9 @@
       <c r="C5" s="2">
         <v>1200</v>
       </c>
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -498,6 +520,9 @@
       <c r="C6" s="2">
         <v>1400</v>
       </c>
+      <c r="D6" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
@@ -506,6 +531,9 @@
       <c r="C7" s="2">
         <v>1600</v>
       </c>
+      <c r="D7" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
@@ -514,6 +542,9 @@
       <c r="C8" s="2">
         <v>1800</v>
       </c>
+      <c r="D8" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -521,6 +552,9 @@
       </c>
       <c r="C9" s="2">
         <v>2000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/player_attr_level.xlsx
+++ b/_ConfigExcels/Datas/player_attr_level.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -66,13 +66,76 @@
   <si>
     <t>基础伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beans.Com_ValueResPair</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alue</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tem_require</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|6</t>
+  </si>
+  <si>
+    <t>1|8</t>
+  </si>
+  <si>
+    <t>1|10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +159,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -111,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,6 +194,32 @@
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
@@ -141,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +248,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -428,136 +534,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="14.375" style="2" customWidth="1"/>
-    <col min="3" max="4" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="7" width="18.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23" style="2" customWidth="1"/>
-    <col min="11" max="11" width="38.125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="20.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23" style="2" customWidth="1"/>
+    <col min="12" max="12" width="38.125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C7" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C8" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C9" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D5" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D6" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1600</v>
-      </c>
-      <c r="D7" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1800</v>
-      </c>
-      <c r="D8" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>2000</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
         <v>20</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/_ConfigExcels/Datas/player_attr_level.xlsx
+++ b/_ConfigExcels/Datas/player_attr_level.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="291">
   <si>
     <t>##var</t>
   </si>
@@ -129,6 +129,820 @@
   </si>
   <si>
     <t>1|10</t>
+  </si>
+  <si>
+    <t>1|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|3</t>
+  </si>
+  <si>
+    <t>1|4</t>
+  </si>
+  <si>
+    <t>1|5</t>
+  </si>
+  <si>
+    <t>1|7</t>
+  </si>
+  <si>
+    <t>1|9</t>
+  </si>
+  <si>
+    <t>1|11</t>
+  </si>
+  <si>
+    <t>1|12</t>
+  </si>
+  <si>
+    <t>1|13</t>
+  </si>
+  <si>
+    <t>1|14</t>
+  </si>
+  <si>
+    <t>1|15</t>
+  </si>
+  <si>
+    <t>1|16</t>
+  </si>
+  <si>
+    <t>1|17</t>
+  </si>
+  <si>
+    <t>1|18</t>
+  </si>
+  <si>
+    <t>1|19</t>
+  </si>
+  <si>
+    <t>1|20</t>
+  </si>
+  <si>
+    <t>1|21</t>
+  </si>
+  <si>
+    <t>1|22</t>
+  </si>
+  <si>
+    <t>1|23</t>
+  </si>
+  <si>
+    <t>1|24</t>
+  </si>
+  <si>
+    <t>1|25</t>
+  </si>
+  <si>
+    <t>1|26</t>
+  </si>
+  <si>
+    <t>1|27</t>
+  </si>
+  <si>
+    <t>1|28</t>
+  </si>
+  <si>
+    <t>1|29</t>
+  </si>
+  <si>
+    <t>1|30</t>
+  </si>
+  <si>
+    <t>1|31</t>
+  </si>
+  <si>
+    <t>1|32</t>
+  </si>
+  <si>
+    <t>1|33</t>
+  </si>
+  <si>
+    <t>1|34</t>
+  </si>
+  <si>
+    <t>1|35</t>
+  </si>
+  <si>
+    <t>1|36</t>
+  </si>
+  <si>
+    <t>1|37</t>
+  </si>
+  <si>
+    <t>1|38</t>
+  </si>
+  <si>
+    <t>1|39</t>
+  </si>
+  <si>
+    <t>1|40</t>
+  </si>
+  <si>
+    <t>1|41</t>
+  </si>
+  <si>
+    <t>1|42</t>
+  </si>
+  <si>
+    <t>1|43</t>
+  </si>
+  <si>
+    <t>1|44</t>
+  </si>
+  <si>
+    <t>1|45</t>
+  </si>
+  <si>
+    <t>1|46</t>
+  </si>
+  <si>
+    <t>1|47</t>
+  </si>
+  <si>
+    <t>1|48</t>
+  </si>
+  <si>
+    <t>1|49</t>
+  </si>
+  <si>
+    <t>1|50</t>
+  </si>
+  <si>
+    <t>1|51</t>
+  </si>
+  <si>
+    <t>1|52</t>
+  </si>
+  <si>
+    <t>1|53</t>
+  </si>
+  <si>
+    <t>1|54</t>
+  </si>
+  <si>
+    <t>1|55</t>
+  </si>
+  <si>
+    <t>1|56</t>
+  </si>
+  <si>
+    <t>1|57</t>
+  </si>
+  <si>
+    <t>1|58</t>
+  </si>
+  <si>
+    <t>1|59</t>
+  </si>
+  <si>
+    <t>1|60</t>
+  </si>
+  <si>
+    <t>1|61</t>
+  </si>
+  <si>
+    <t>1|62</t>
+  </si>
+  <si>
+    <t>1|63</t>
+  </si>
+  <si>
+    <t>1|64</t>
+  </si>
+  <si>
+    <t>1|65</t>
+  </si>
+  <si>
+    <t>1|66</t>
+  </si>
+  <si>
+    <t>1|67</t>
+  </si>
+  <si>
+    <t>1|68</t>
+  </si>
+  <si>
+    <t>1|69</t>
+  </si>
+  <si>
+    <t>1|70</t>
+  </si>
+  <si>
+    <t>1|71</t>
+  </si>
+  <si>
+    <t>1|72</t>
+  </si>
+  <si>
+    <t>1|73</t>
+  </si>
+  <si>
+    <t>1|74</t>
+  </si>
+  <si>
+    <t>1|75</t>
+  </si>
+  <si>
+    <t>1|76</t>
+  </si>
+  <si>
+    <t>1|77</t>
+  </si>
+  <si>
+    <t>1|78</t>
+  </si>
+  <si>
+    <t>1|79</t>
+  </si>
+  <si>
+    <t>1|80</t>
+  </si>
+  <si>
+    <t>1|81</t>
+  </si>
+  <si>
+    <t>1|82</t>
+  </si>
+  <si>
+    <t>1|83</t>
+  </si>
+  <si>
+    <t>1|84</t>
+  </si>
+  <si>
+    <t>1|85</t>
+  </si>
+  <si>
+    <t>1|86</t>
+  </si>
+  <si>
+    <t>1|87</t>
+  </si>
+  <si>
+    <t>1|88</t>
+  </si>
+  <si>
+    <t>1|89</t>
+  </si>
+  <si>
+    <t>1|90</t>
+  </si>
+  <si>
+    <t>1|91</t>
+  </si>
+  <si>
+    <t>1|92</t>
+  </si>
+  <si>
+    <t>1|93</t>
+  </si>
+  <si>
+    <t>1|94</t>
+  </si>
+  <si>
+    <t>1|95</t>
+  </si>
+  <si>
+    <t>1|96</t>
+  </si>
+  <si>
+    <t>1|97</t>
+  </si>
+  <si>
+    <t>1|98</t>
+  </si>
+  <si>
+    <t>1|99</t>
+  </si>
+  <si>
+    <t>1|100</t>
+  </si>
+  <si>
+    <t>1|101</t>
+  </si>
+  <si>
+    <t>1|102</t>
+  </si>
+  <si>
+    <t>1|103</t>
+  </si>
+  <si>
+    <t>1|104</t>
+  </si>
+  <si>
+    <t>1|105</t>
+  </si>
+  <si>
+    <t>1|106</t>
+  </si>
+  <si>
+    <t>1|107</t>
+  </si>
+  <si>
+    <t>1|108</t>
+  </si>
+  <si>
+    <t>1|109</t>
+  </si>
+  <si>
+    <t>1|110</t>
+  </si>
+  <si>
+    <t>1|111</t>
+  </si>
+  <si>
+    <t>1|112</t>
+  </si>
+  <si>
+    <t>1|113</t>
+  </si>
+  <si>
+    <t>1|114</t>
+  </si>
+  <si>
+    <t>1|115</t>
+  </si>
+  <si>
+    <t>1|116</t>
+  </si>
+  <si>
+    <t>1|117</t>
+  </si>
+  <si>
+    <t>1|118</t>
+  </si>
+  <si>
+    <t>1|119</t>
+  </si>
+  <si>
+    <t>1|120</t>
+  </si>
+  <si>
+    <t>1|121</t>
+  </si>
+  <si>
+    <t>1|122</t>
+  </si>
+  <si>
+    <t>1|123</t>
+  </si>
+  <si>
+    <t>1|124</t>
+  </si>
+  <si>
+    <t>1|125</t>
+  </si>
+  <si>
+    <t>1|126</t>
+  </si>
+  <si>
+    <t>1|127</t>
+  </si>
+  <si>
+    <t>1|128</t>
+  </si>
+  <si>
+    <t>1|129</t>
+  </si>
+  <si>
+    <t>1|130</t>
+  </si>
+  <si>
+    <t>1|131</t>
+  </si>
+  <si>
+    <t>1|132</t>
+  </si>
+  <si>
+    <t>1|133</t>
+  </si>
+  <si>
+    <t>1|134</t>
+  </si>
+  <si>
+    <t>1|135</t>
+  </si>
+  <si>
+    <t>1|136</t>
+  </si>
+  <si>
+    <t>1|137</t>
+  </si>
+  <si>
+    <t>1|138</t>
+  </si>
+  <si>
+    <t>1|139</t>
+  </si>
+  <si>
+    <t>1|140</t>
+  </si>
+  <si>
+    <t>1|141</t>
+  </si>
+  <si>
+    <t>1|142</t>
+  </si>
+  <si>
+    <t>1|143</t>
+  </si>
+  <si>
+    <t>1|144</t>
+  </si>
+  <si>
+    <t>1|145</t>
+  </si>
+  <si>
+    <t>1|146</t>
+  </si>
+  <si>
+    <t>1|147</t>
+  </si>
+  <si>
+    <t>1|148</t>
+  </si>
+  <si>
+    <t>1|149</t>
+  </si>
+  <si>
+    <t>1|150</t>
+  </si>
+  <si>
+    <t>1|151</t>
+  </si>
+  <si>
+    <t>1|152</t>
+  </si>
+  <si>
+    <t>1|153</t>
+  </si>
+  <si>
+    <t>1|154</t>
+  </si>
+  <si>
+    <t>1|155</t>
+  </si>
+  <si>
+    <t>1|156</t>
+  </si>
+  <si>
+    <t>1|157</t>
+  </si>
+  <si>
+    <t>1|158</t>
+  </si>
+  <si>
+    <t>1|159</t>
+  </si>
+  <si>
+    <t>1|160</t>
+  </si>
+  <si>
+    <t>1|161</t>
+  </si>
+  <si>
+    <t>1|162</t>
+  </si>
+  <si>
+    <t>1|163</t>
+  </si>
+  <si>
+    <t>1|164</t>
+  </si>
+  <si>
+    <t>1|165</t>
+  </si>
+  <si>
+    <t>1|166</t>
+  </si>
+  <si>
+    <t>1|167</t>
+  </si>
+  <si>
+    <t>1|168</t>
+  </si>
+  <si>
+    <t>1|169</t>
+  </si>
+  <si>
+    <t>1|170</t>
+  </si>
+  <si>
+    <t>1|171</t>
+  </si>
+  <si>
+    <t>1|172</t>
+  </si>
+  <si>
+    <t>1|173</t>
+  </si>
+  <si>
+    <t>1|174</t>
+  </si>
+  <si>
+    <t>1|175</t>
+  </si>
+  <si>
+    <t>1|176</t>
+  </si>
+  <si>
+    <t>1|177</t>
+  </si>
+  <si>
+    <t>1|178</t>
+  </si>
+  <si>
+    <t>1|179</t>
+  </si>
+  <si>
+    <t>1|180</t>
+  </si>
+  <si>
+    <t>1|181</t>
+  </si>
+  <si>
+    <t>1|182</t>
+  </si>
+  <si>
+    <t>1|183</t>
+  </si>
+  <si>
+    <t>1|184</t>
+  </si>
+  <si>
+    <t>1|185</t>
+  </si>
+  <si>
+    <t>1|186</t>
+  </si>
+  <si>
+    <t>1|187</t>
+  </si>
+  <si>
+    <t>1|188</t>
+  </si>
+  <si>
+    <t>1|189</t>
+  </si>
+  <si>
+    <t>1|190</t>
+  </si>
+  <si>
+    <t>1|191</t>
+  </si>
+  <si>
+    <t>1|192</t>
+  </si>
+  <si>
+    <t>1|193</t>
+  </si>
+  <si>
+    <t>1|194</t>
+  </si>
+  <si>
+    <t>1|195</t>
+  </si>
+  <si>
+    <t>1|196</t>
+  </si>
+  <si>
+    <t>1|197</t>
+  </si>
+  <si>
+    <t>1|198</t>
+  </si>
+  <si>
+    <t>1|199</t>
+  </si>
+  <si>
+    <t>1|200</t>
+  </si>
+  <si>
+    <t>1|201</t>
+  </si>
+  <si>
+    <t>1|202</t>
+  </si>
+  <si>
+    <t>1|203</t>
+  </si>
+  <si>
+    <t>1|204</t>
+  </si>
+  <si>
+    <t>1|205</t>
+  </si>
+  <si>
+    <t>1|206</t>
+  </si>
+  <si>
+    <t>1|207</t>
+  </si>
+  <si>
+    <t>1|208</t>
+  </si>
+  <si>
+    <t>1|209</t>
+  </si>
+  <si>
+    <t>1|210</t>
+  </si>
+  <si>
+    <t>1|211</t>
+  </si>
+  <si>
+    <t>1|212</t>
+  </si>
+  <si>
+    <t>1|213</t>
+  </si>
+  <si>
+    <t>1|214</t>
+  </si>
+  <si>
+    <t>1|215</t>
+  </si>
+  <si>
+    <t>1|216</t>
+  </si>
+  <si>
+    <t>1|217</t>
+  </si>
+  <si>
+    <t>1|218</t>
+  </si>
+  <si>
+    <t>1|219</t>
+  </si>
+  <si>
+    <t>1|220</t>
+  </si>
+  <si>
+    <t>1|221</t>
+  </si>
+  <si>
+    <t>1|222</t>
+  </si>
+  <si>
+    <t>1|223</t>
+  </si>
+  <si>
+    <t>1|224</t>
+  </si>
+  <si>
+    <t>1|225</t>
+  </si>
+  <si>
+    <t>1|226</t>
+  </si>
+  <si>
+    <t>1|227</t>
+  </si>
+  <si>
+    <t>1|228</t>
+  </si>
+  <si>
+    <t>1|229</t>
+  </si>
+  <si>
+    <t>1|230</t>
+  </si>
+  <si>
+    <t>1|231</t>
+  </si>
+  <si>
+    <t>1|232</t>
+  </si>
+  <si>
+    <t>1|233</t>
+  </si>
+  <si>
+    <t>1|234</t>
+  </si>
+  <si>
+    <t>1|235</t>
+  </si>
+  <si>
+    <t>1|236</t>
+  </si>
+  <si>
+    <t>1|237</t>
+  </si>
+  <si>
+    <t>1|238</t>
+  </si>
+  <si>
+    <t>1|239</t>
+  </si>
+  <si>
+    <t>1|240</t>
+  </si>
+  <si>
+    <t>1|241</t>
+  </si>
+  <si>
+    <t>1|242</t>
+  </si>
+  <si>
+    <t>1|243</t>
+  </si>
+  <si>
+    <t>1|244</t>
+  </si>
+  <si>
+    <t>1|245</t>
+  </si>
+  <si>
+    <t>1|246</t>
+  </si>
+  <si>
+    <t>1|247</t>
+  </si>
+  <si>
+    <t>1|248</t>
+  </si>
+  <si>
+    <t>1|249</t>
+  </si>
+  <si>
+    <t>1|250</t>
+  </si>
+  <si>
+    <t>1|251</t>
+  </si>
+  <si>
+    <t>1|252</t>
+  </si>
+  <si>
+    <t>1|253</t>
+  </si>
+  <si>
+    <t>1|254</t>
+  </si>
+  <si>
+    <t>1|255</t>
+  </si>
+  <si>
+    <t>1|256</t>
+  </si>
+  <si>
+    <t>1|257</t>
+  </si>
+  <si>
+    <t>1|258</t>
+  </si>
+  <si>
+    <t>1|259</t>
+  </si>
+  <si>
+    <t>1|260</t>
+  </si>
+  <si>
+    <t>1|261</t>
+  </si>
+  <si>
+    <t>1|262</t>
+  </si>
+  <si>
+    <t>1|263</t>
+  </si>
+  <si>
+    <t>1|264</t>
+  </si>
+  <si>
+    <t>1|265</t>
+  </si>
+  <si>
+    <t>1|266</t>
+  </si>
+  <si>
+    <t>1|267</t>
+  </si>
+  <si>
+    <t>1|268</t>
+  </si>
+  <si>
+    <t>1|269</t>
+  </si>
+  <si>
+    <t>1|270</t>
+  </si>
+  <si>
+    <t>1|271</t>
+  </si>
+  <si>
+    <t>1|272</t>
+  </si>
+  <si>
+    <t>1|273</t>
+  </si>
+  <si>
+    <t>1|274</t>
+  </si>
+  <si>
+    <t>1|275</t>
   </si>
 </sst>
 </file>
@@ -249,13 +1063,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -534,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F279"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E5:E279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -561,14 +1375,14 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -577,14 +1391,14 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -630,13 +1444,13 @@
       <c r="C5" s="2">
         <v>1000</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -645,15 +1459,15 @@
         <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>15</v>
+        <v>1050</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -662,15 +1476,15 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
+        <v>1100</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -679,15 +1493,15 @@
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>1600</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>1150</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="2">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -696,15 +1510,15 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>1800</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>1200</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -713,16 +1527,4589 @@
         <v>6</v>
       </c>
       <c r="C10" s="2">
+        <v>1250</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1350</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1450</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1550</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1600</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="2">
+        <v>22</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1650</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1700</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2">
+        <v>24</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1750</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2">
+        <v>25</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2">
+        <v>26</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>18</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1850</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="2">
+        <v>27</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1900</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1950</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2">
+        <v>29</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>21</v>
+      </c>
+      <c r="C25" s="2">
         <v>2000</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="2">
+        <v>30</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2050</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2">
+        <v>31</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2100</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2">
+        <v>32</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2150</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2">
+        <v>33</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
-      <c r="F10" s="6" t="s">
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2">
+        <v>34</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2250</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="2">
+        <v>35</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2300</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2">
+        <v>36</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2350</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="2">
+        <v>37</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2400</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2">
+        <v>38</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2450</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="2">
+        <v>39</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>31</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2">
+        <v>40</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2550</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2">
+        <v>41</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2600</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="2">
+        <v>42</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2650</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2750</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="2">
+        <v>37</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="2">
+        <v>46</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2850</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="2">
+        <v>47</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="2">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2900</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="2">
+        <v>48</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>40</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2950</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="2">
+        <v>49</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>41</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="2">
+        <v>50</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>42</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3050</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="2">
+        <v>51</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3100</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="2">
+        <v>52</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>44</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3150</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="2">
+        <v>53</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>45</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="2">
+        <v>54</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>46</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3250</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="2">
+        <v>55</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>47</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3300</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="2">
+        <v>56</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3350</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="2">
+        <v>57</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3400</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="2">
+        <v>58</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>50</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3450</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="2">
+        <v>59</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <v>51</v>
+      </c>
+      <c r="C55" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="2">
+        <v>60</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>52</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3550</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="2">
+        <v>61</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <v>53</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3600</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="2">
+        <v>62</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
+        <v>54</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3650</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>63</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <v>55</v>
+      </c>
+      <c r="C59" s="2">
+        <v>3700</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="2">
+        <v>64</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
+        <v>56</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3750</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="2">
+        <v>65</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <v>57</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3800</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="2">
+        <v>66</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
+        <v>58</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3850</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="2">
+        <v>67</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <v>59</v>
+      </c>
+      <c r="C63" s="2">
+        <v>3900</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="2">
+        <v>68</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <v>60</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3950</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="2">
+        <v>69</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <v>61</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4000</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2">
+        <v>70</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <v>62</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4050</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2">
+        <v>71</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>63</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4100</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="2">
+        <v>72</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>64</v>
+      </c>
+      <c r="C68" s="2">
+        <v>4150</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="2">
+        <v>73</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <v>65</v>
+      </c>
+      <c r="C69" s="2">
+        <v>4200</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="2">
+        <v>74</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <v>66</v>
+      </c>
+      <c r="C70" s="2">
+        <v>4250</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>67</v>
+      </c>
+      <c r="C71" s="2">
+        <v>4300</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="2">
+        <v>76</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <v>68</v>
+      </c>
+      <c r="C72" s="2">
+        <v>4350</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="2">
+        <v>77</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>69</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4400</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>70</v>
+      </c>
+      <c r="C74" s="2">
+        <v>4450</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="2">
+        <v>79</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2">
+        <v>4500</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E75" s="2">
+        <v>80</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <v>72</v>
+      </c>
+      <c r="C76" s="2">
+        <v>4550</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="2">
+        <v>81</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <v>73</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4600</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E77" s="2">
+        <v>82</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <v>74</v>
+      </c>
+      <c r="C78" s="2">
+        <v>4650</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E78" s="2">
+        <v>83</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <v>75</v>
+      </c>
+      <c r="C79" s="2">
+        <v>4700</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="2">
+        <v>84</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <v>76</v>
+      </c>
+      <c r="C80" s="2">
+        <v>4750</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E80" s="2">
+        <v>85</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <v>77</v>
+      </c>
+      <c r="C81" s="2">
+        <v>4800</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="2">
+        <v>86</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <v>78</v>
+      </c>
+      <c r="C82" s="2">
+        <v>4850</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E82" s="2">
+        <v>87</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="2">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2">
+        <v>4900</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="2">
+        <v>88</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <v>80</v>
+      </c>
+      <c r="C84" s="2">
+        <v>4950</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84" s="2">
+        <v>89</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="2">
+        <v>81</v>
+      </c>
+      <c r="C85" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="2">
+        <v>90</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B86" s="2">
+        <v>82</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5050</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="2">
+        <v>91</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" s="2">
+        <v>83</v>
+      </c>
+      <c r="C87" s="2">
+        <v>5100</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" s="2">
+        <v>92</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B88" s="2">
+        <v>84</v>
+      </c>
+      <c r="C88" s="2">
+        <v>5150</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="2">
+        <v>93</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" s="2">
+        <v>85</v>
+      </c>
+      <c r="C89" s="2">
+        <v>5200</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="2">
+        <v>94</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B90" s="2">
+        <v>86</v>
+      </c>
+      <c r="C90" s="2">
+        <v>5250</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="2">
+        <v>95</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B91" s="2">
+        <v>87</v>
+      </c>
+      <c r="C91" s="2">
+        <v>5300</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" s="2">
+        <v>96</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B92" s="2">
+        <v>88</v>
+      </c>
+      <c r="C92" s="2">
+        <v>5350</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="2">
+        <v>97</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B93" s="2">
+        <v>89</v>
+      </c>
+      <c r="C93" s="2">
+        <v>5400</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" s="2">
+        <v>98</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="2">
+        <v>90</v>
+      </c>
+      <c r="C94" s="2">
+        <v>5450</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94" s="2">
+        <v>99</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="2">
+        <v>91</v>
+      </c>
+      <c r="C95" s="2">
+        <v>5500</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E95" s="2">
+        <v>100</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96" s="2">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5550</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="2">
+        <v>101</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="2">
+        <v>93</v>
+      </c>
+      <c r="C97" s="2">
+        <v>5600</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" s="2">
+        <v>102</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98" s="2">
+        <v>94</v>
+      </c>
+      <c r="C98" s="2">
+        <v>5650</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E98" s="2">
+        <v>103</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="2">
+        <v>95</v>
+      </c>
+      <c r="C99" s="2">
+        <v>5700</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" s="2">
+        <v>104</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B100" s="2">
+        <v>96</v>
+      </c>
+      <c r="C100" s="2">
+        <v>5750</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" s="2">
+        <v>105</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="2">
+        <v>97</v>
+      </c>
+      <c r="C101" s="2">
+        <v>5800</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E101" s="2">
+        <v>106</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102" s="2">
+        <v>98</v>
+      </c>
+      <c r="C102" s="2">
+        <v>5850</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E102" s="2">
+        <v>107</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="2">
+        <v>99</v>
+      </c>
+      <c r="C103" s="2">
+        <v>5900</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E103" s="2">
+        <v>108</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104" s="2">
+        <v>100</v>
+      </c>
+      <c r="C104" s="2">
+        <v>5950</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" s="2">
+        <v>109</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105" s="2">
+        <v>101</v>
+      </c>
+      <c r="C105" s="2">
+        <v>6000</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E105" s="2">
+        <v>110</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="2">
+        <v>102</v>
+      </c>
+      <c r="C106" s="2">
+        <v>6050</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E106" s="2">
+        <v>111</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="2">
+        <v>103</v>
+      </c>
+      <c r="C107" s="2">
+        <v>6100</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107" s="2">
+        <v>112</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="2">
+        <v>104</v>
+      </c>
+      <c r="C108" s="2">
+        <v>6150</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" s="2">
+        <v>113</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="2">
+        <v>105</v>
+      </c>
+      <c r="C109" s="2">
+        <v>6200</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E109" s="2">
+        <v>114</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="2">
+        <v>106</v>
+      </c>
+      <c r="C110" s="2">
+        <v>6250</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E110" s="2">
+        <v>115</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="2">
+        <v>107</v>
+      </c>
+      <c r="C111" s="2">
+        <v>6300</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" s="2">
+        <v>116</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="2">
+        <v>108</v>
+      </c>
+      <c r="C112" s="2">
+        <v>6350</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E112" s="2">
+        <v>117</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B113" s="2">
+        <v>109</v>
+      </c>
+      <c r="C113" s="2">
+        <v>6400</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E113" s="2">
+        <v>118</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B114" s="2">
+        <v>110</v>
+      </c>
+      <c r="C114" s="2">
+        <v>6450</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="2">
+        <v>119</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B115" s="2">
+        <v>111</v>
+      </c>
+      <c r="C115" s="2">
+        <v>6500</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E115" s="2">
+        <v>120</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B116" s="2">
+        <v>112</v>
+      </c>
+      <c r="C116" s="2">
+        <v>6550</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E116" s="2">
+        <v>121</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B117" s="2">
+        <v>113</v>
+      </c>
+      <c r="C117" s="2">
+        <v>6600</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" s="2">
+        <v>122</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B118" s="2">
+        <v>114</v>
+      </c>
+      <c r="C118" s="2">
+        <v>6650</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="2">
+        <v>123</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B119" s="2">
+        <v>115</v>
+      </c>
+      <c r="C119" s="2">
+        <v>6700</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E119" s="2">
+        <v>124</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B120" s="2">
+        <v>116</v>
+      </c>
+      <c r="C120" s="2">
+        <v>6750</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E120" s="2">
+        <v>125</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B121" s="2">
+        <v>117</v>
+      </c>
+      <c r="C121" s="2">
+        <v>6800</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E121" s="2">
+        <v>126</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B122" s="2">
+        <v>118</v>
+      </c>
+      <c r="C122" s="2">
+        <v>6850</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="2">
+        <v>127</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B123" s="2">
+        <v>119</v>
+      </c>
+      <c r="C123" s="2">
+        <v>6900</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E123" s="2">
+        <v>128</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B124" s="2">
+        <v>120</v>
+      </c>
+      <c r="C124" s="2">
+        <v>6950</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E124" s="2">
+        <v>129</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B125" s="2">
+        <v>121</v>
+      </c>
+      <c r="C125" s="2">
+        <v>7000</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E125" s="2">
+        <v>130</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B126" s="2">
+        <v>122</v>
+      </c>
+      <c r="C126" s="2">
+        <v>7050</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E126" s="2">
+        <v>131</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B127" s="2">
+        <v>123</v>
+      </c>
+      <c r="C127" s="2">
+        <v>7100</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E127" s="2">
+        <v>132</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B128" s="2">
+        <v>124</v>
+      </c>
+      <c r="C128" s="2">
+        <v>7150</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E128" s="2">
+        <v>133</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B129" s="2">
+        <v>125</v>
+      </c>
+      <c r="C129" s="2">
+        <v>7200</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E129" s="2">
+        <v>134</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="2">
+        <v>126</v>
+      </c>
+      <c r="C130" s="2">
+        <v>7250</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E130" s="2">
+        <v>135</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B131" s="2">
+        <v>127</v>
+      </c>
+      <c r="C131" s="2">
+        <v>7300</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E131" s="2">
+        <v>136</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B132" s="2">
+        <v>128</v>
+      </c>
+      <c r="C132" s="2">
+        <v>7350</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E132" s="2">
+        <v>137</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="2">
+        <v>129</v>
+      </c>
+      <c r="C133" s="2">
+        <v>7400</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E133" s="2">
+        <v>138</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B134" s="2">
+        <v>130</v>
+      </c>
+      <c r="C134" s="2">
+        <v>7450</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E134" s="2">
+        <v>139</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B135" s="2">
+        <v>131</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7500</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135" s="2">
+        <v>140</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B136" s="2">
+        <v>132</v>
+      </c>
+      <c r="C136" s="2">
+        <v>7550</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136" s="2">
+        <v>141</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B137" s="2">
+        <v>133</v>
+      </c>
+      <c r="C137" s="2">
+        <v>7600</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E137" s="2">
+        <v>142</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="2">
+        <v>134</v>
+      </c>
+      <c r="C138" s="2">
+        <v>7650</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E138" s="2">
+        <v>143</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B139" s="2">
+        <v>135</v>
+      </c>
+      <c r="C139" s="2">
+        <v>7700</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E139" s="2">
+        <v>144</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B140" s="2">
+        <v>136</v>
+      </c>
+      <c r="C140" s="2">
+        <v>7750</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" s="2">
+        <v>145</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B141" s="2">
+        <v>137</v>
+      </c>
+      <c r="C141" s="2">
+        <v>7800</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E141" s="2">
+        <v>146</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B142" s="2">
+        <v>138</v>
+      </c>
+      <c r="C142" s="2">
+        <v>7850</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="2">
+        <v>147</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B143" s="2">
+        <v>139</v>
+      </c>
+      <c r="C143" s="2">
+        <v>7900</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E143" s="2">
+        <v>148</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B144" s="2">
+        <v>140</v>
+      </c>
+      <c r="C144" s="2">
+        <v>7950</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" s="2">
+        <v>149</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="2">
+        <v>141</v>
+      </c>
+      <c r="C145" s="2">
+        <v>8000</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E145" s="2">
+        <v>150</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B146" s="2">
+        <v>142</v>
+      </c>
+      <c r="C146" s="2">
+        <v>8050</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E146" s="2">
+        <v>151</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B147" s="2">
+        <v>143</v>
+      </c>
+      <c r="C147" s="2">
+        <v>8100</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E147" s="2">
+        <v>152</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B148" s="2">
+        <v>144</v>
+      </c>
+      <c r="C148" s="2">
+        <v>8150</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E148" s="2">
+        <v>153</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B149" s="2">
+        <v>145</v>
+      </c>
+      <c r="C149" s="2">
+        <v>8200</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E149" s="2">
+        <v>154</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B150" s="2">
+        <v>146</v>
+      </c>
+      <c r="C150" s="2">
+        <v>8250</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E150" s="2">
+        <v>155</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B151" s="2">
+        <v>147</v>
+      </c>
+      <c r="C151" s="2">
+        <v>8300</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E151" s="2">
+        <v>156</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B152" s="2">
+        <v>148</v>
+      </c>
+      <c r="C152" s="2">
+        <v>8350</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152" s="2">
+        <v>157</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="2">
+        <v>149</v>
+      </c>
+      <c r="C153" s="2">
+        <v>8400</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E153" s="2">
+        <v>158</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B154" s="2">
+        <v>150</v>
+      </c>
+      <c r="C154" s="2">
+        <v>8450</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" s="2">
+        <v>159</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B155" s="2">
+        <v>151</v>
+      </c>
+      <c r="C155" s="2">
+        <v>8500</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E155" s="2">
+        <v>160</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B156" s="2">
+        <v>152</v>
+      </c>
+      <c r="C156" s="2">
+        <v>8550</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E156" s="2">
+        <v>161</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B157" s="2">
+        <v>153</v>
+      </c>
+      <c r="C157" s="2">
+        <v>8600</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E157" s="2">
+        <v>162</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B158" s="2">
+        <v>154</v>
+      </c>
+      <c r="C158" s="2">
+        <v>8650</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E158" s="2">
+        <v>163</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B159" s="2">
+        <v>155</v>
+      </c>
+      <c r="C159" s="2">
+        <v>8700</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E159" s="2">
+        <v>164</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B160" s="2">
+        <v>156</v>
+      </c>
+      <c r="C160" s="2">
+        <v>8750</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E160" s="2">
+        <v>165</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B161" s="2">
+        <v>157</v>
+      </c>
+      <c r="C161" s="2">
+        <v>8800</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E161" s="2">
+        <v>166</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B162" s="2">
+        <v>158</v>
+      </c>
+      <c r="C162" s="2">
+        <v>8850</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E162" s="2">
+        <v>167</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" s="2">
+        <v>159</v>
+      </c>
+      <c r="C163" s="2">
+        <v>8900</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E163" s="2">
+        <v>168</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="2">
+        <v>160</v>
+      </c>
+      <c r="C164" s="2">
+        <v>8950</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E164" s="2">
+        <v>169</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B165" s="2">
+        <v>161</v>
+      </c>
+      <c r="C165" s="2">
+        <v>9000</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E165" s="2">
+        <v>170</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B166" s="2">
+        <v>162</v>
+      </c>
+      <c r="C166" s="2">
+        <v>9050</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E166" s="2">
+        <v>171</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B167" s="2">
+        <v>163</v>
+      </c>
+      <c r="C167" s="2">
+        <v>9100</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E167" s="2">
+        <v>172</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="2">
+        <v>164</v>
+      </c>
+      <c r="C168" s="2">
+        <v>9150</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E168" s="2">
+        <v>173</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="2">
+        <v>165</v>
+      </c>
+      <c r="C169" s="2">
+        <v>9200</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E169" s="2">
+        <v>174</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="2">
+        <v>166</v>
+      </c>
+      <c r="C170" s="2">
+        <v>9250</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E170" s="2">
+        <v>175</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B171" s="2">
+        <v>167</v>
+      </c>
+      <c r="C171" s="2">
+        <v>9300</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E171" s="2">
+        <v>176</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="2">
+        <v>168</v>
+      </c>
+      <c r="C172" s="2">
+        <v>9350</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E172" s="2">
+        <v>177</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="2">
+        <v>169</v>
+      </c>
+      <c r="C173" s="2">
+        <v>9400</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E173" s="2">
+        <v>178</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="2">
+        <v>170</v>
+      </c>
+      <c r="C174" s="2">
+        <v>9450</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E174" s="2">
+        <v>179</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B175" s="2">
+        <v>171</v>
+      </c>
+      <c r="C175" s="2">
+        <v>9500</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E175" s="2">
+        <v>180</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B176" s="2">
+        <v>172</v>
+      </c>
+      <c r="C176" s="2">
+        <v>9550</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E176" s="2">
+        <v>181</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B177" s="2">
+        <v>173</v>
+      </c>
+      <c r="C177" s="2">
+        <v>9600</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E177" s="2">
+        <v>182</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B178" s="2">
+        <v>174</v>
+      </c>
+      <c r="C178" s="2">
+        <v>9650</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E178" s="2">
+        <v>183</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B179" s="2">
+        <v>175</v>
+      </c>
+      <c r="C179" s="2">
+        <v>9700</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E179" s="2">
+        <v>184</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B180" s="2">
+        <v>176</v>
+      </c>
+      <c r="C180" s="2">
+        <v>9750</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E180" s="2">
+        <v>185</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B181" s="2">
+        <v>177</v>
+      </c>
+      <c r="C181" s="2">
+        <v>9800</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E181" s="2">
+        <v>186</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B182" s="2">
+        <v>178</v>
+      </c>
+      <c r="C182" s="2">
+        <v>9850</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E182" s="2">
+        <v>187</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B183" s="2">
+        <v>179</v>
+      </c>
+      <c r="C183" s="2">
+        <v>9900</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E183" s="2">
+        <v>188</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B184" s="2">
+        <v>180</v>
+      </c>
+      <c r="C184" s="2">
+        <v>9950</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E184" s="2">
+        <v>189</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B185" s="2">
+        <v>181</v>
+      </c>
+      <c r="C185" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E185" s="2">
+        <v>190</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B186" s="2">
+        <v>182</v>
+      </c>
+      <c r="C186" s="2">
+        <v>10050</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E186" s="2">
+        <v>191</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B187" s="2">
+        <v>183</v>
+      </c>
+      <c r="C187" s="2">
+        <v>10100</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E187" s="2">
+        <v>192</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B188" s="2">
+        <v>184</v>
+      </c>
+      <c r="C188" s="2">
+        <v>10150</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E188" s="2">
+        <v>193</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B189" s="2">
+        <v>185</v>
+      </c>
+      <c r="C189" s="2">
+        <v>10200</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E189" s="2">
+        <v>194</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B190" s="2">
+        <v>186</v>
+      </c>
+      <c r="C190" s="2">
+        <v>10250</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E190" s="2">
+        <v>195</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B191" s="2">
+        <v>187</v>
+      </c>
+      <c r="C191" s="2">
+        <v>10300</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E191" s="2">
+        <v>196</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B192" s="2">
+        <v>188</v>
+      </c>
+      <c r="C192" s="2">
+        <v>10350</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E192" s="2">
+        <v>197</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B193" s="2">
+        <v>189</v>
+      </c>
+      <c r="C193" s="2">
+        <v>10400</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E193" s="2">
+        <v>198</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B194" s="2">
+        <v>190</v>
+      </c>
+      <c r="C194" s="2">
+        <v>10450</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E194" s="2">
+        <v>199</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B195" s="2">
+        <v>191</v>
+      </c>
+      <c r="C195" s="2">
+        <v>10500</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E195" s="2">
+        <v>200</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B196" s="2">
+        <v>192</v>
+      </c>
+      <c r="C196" s="2">
+        <v>10550</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E196" s="2">
+        <v>201</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B197" s="2">
+        <v>193</v>
+      </c>
+      <c r="C197" s="2">
+        <v>10600</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E197" s="2">
+        <v>202</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B198" s="2">
+        <v>194</v>
+      </c>
+      <c r="C198" s="2">
+        <v>10650</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E198" s="2">
+        <v>203</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B199" s="2">
+        <v>195</v>
+      </c>
+      <c r="C199" s="2">
+        <v>10700</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E199" s="2">
+        <v>204</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B200" s="2">
+        <v>196</v>
+      </c>
+      <c r="C200" s="2">
+        <v>10750</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E200" s="2">
+        <v>205</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B201" s="2">
+        <v>197</v>
+      </c>
+      <c r="C201" s="2">
+        <v>10800</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E201" s="2">
+        <v>206</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B202" s="2">
+        <v>198</v>
+      </c>
+      <c r="C202" s="2">
+        <v>10850</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E202" s="2">
+        <v>207</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B203" s="2">
+        <v>199</v>
+      </c>
+      <c r="C203" s="2">
+        <v>10900</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E203" s="2">
+        <v>208</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B204" s="2">
+        <v>200</v>
+      </c>
+      <c r="C204" s="2">
+        <v>10950</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E204" s="2">
+        <v>209</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B205" s="2">
+        <v>201</v>
+      </c>
+      <c r="C205" s="2">
+        <v>11000</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E205" s="2">
+        <v>210</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B206" s="2">
+        <v>202</v>
+      </c>
+      <c r="C206" s="2">
+        <v>11050</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E206" s="2">
+        <v>211</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B207" s="2">
+        <v>203</v>
+      </c>
+      <c r="C207" s="2">
+        <v>11100</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E207" s="2">
+        <v>212</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B208" s="2">
+        <v>204</v>
+      </c>
+      <c r="C208" s="2">
+        <v>11150</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E208" s="2">
+        <v>213</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B209" s="2">
+        <v>205</v>
+      </c>
+      <c r="C209" s="2">
+        <v>11200</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E209" s="2">
+        <v>214</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B210" s="2">
+        <v>206</v>
+      </c>
+      <c r="C210" s="2">
+        <v>11250</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E210" s="2">
+        <v>215</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B211" s="2">
+        <v>207</v>
+      </c>
+      <c r="C211" s="2">
+        <v>11300</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E211" s="2">
+        <v>216</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B212" s="2">
+        <v>208</v>
+      </c>
+      <c r="C212" s="2">
+        <v>11350</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E212" s="2">
+        <v>217</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B213" s="2">
+        <v>209</v>
+      </c>
+      <c r="C213" s="2">
+        <v>11400</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E213" s="2">
+        <v>218</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B214" s="2">
+        <v>210</v>
+      </c>
+      <c r="C214" s="2">
+        <v>11450</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E214" s="2">
+        <v>219</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B215" s="2">
+        <v>211</v>
+      </c>
+      <c r="C215" s="2">
+        <v>11500</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E215" s="2">
+        <v>220</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B216" s="2">
+        <v>212</v>
+      </c>
+      <c r="C216" s="2">
+        <v>11550</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E216" s="2">
+        <v>221</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B217" s="2">
+        <v>213</v>
+      </c>
+      <c r="C217" s="2">
+        <v>11600</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E217" s="2">
+        <v>222</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B218" s="2">
+        <v>214</v>
+      </c>
+      <c r="C218" s="2">
+        <v>11650</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E218" s="2">
+        <v>223</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B219" s="2">
+        <v>215</v>
+      </c>
+      <c r="C219" s="2">
+        <v>11700</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E219" s="2">
+        <v>224</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B220" s="2">
+        <v>216</v>
+      </c>
+      <c r="C220" s="2">
+        <v>11750</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E220" s="2">
+        <v>225</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B221" s="2">
+        <v>217</v>
+      </c>
+      <c r="C221" s="2">
+        <v>11800</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E221" s="2">
+        <v>226</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B222" s="2">
+        <v>218</v>
+      </c>
+      <c r="C222" s="2">
+        <v>11850</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E222" s="2">
+        <v>227</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B223" s="2">
+        <v>219</v>
+      </c>
+      <c r="C223" s="2">
+        <v>11900</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E223" s="2">
+        <v>228</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B224" s="2">
+        <v>220</v>
+      </c>
+      <c r="C224" s="2">
+        <v>11950</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E224" s="2">
+        <v>229</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B225" s="2">
+        <v>221</v>
+      </c>
+      <c r="C225" s="2">
+        <v>12000</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E225" s="2">
+        <v>230</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B226" s="2">
+        <v>222</v>
+      </c>
+      <c r="C226" s="2">
+        <v>12050</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E226" s="2">
+        <v>231</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B227" s="2">
+        <v>223</v>
+      </c>
+      <c r="C227" s="2">
+        <v>12100</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E227" s="2">
+        <v>232</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B228" s="2">
+        <v>224</v>
+      </c>
+      <c r="C228" s="2">
+        <v>12150</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E228" s="2">
+        <v>233</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B229" s="2">
+        <v>225</v>
+      </c>
+      <c r="C229" s="2">
+        <v>12200</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E229" s="2">
+        <v>234</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B230" s="2">
+        <v>226</v>
+      </c>
+      <c r="C230" s="2">
+        <v>12250</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E230" s="2">
+        <v>235</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B231" s="2">
+        <v>227</v>
+      </c>
+      <c r="C231" s="2">
+        <v>12300</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E231" s="2">
+        <v>236</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B232" s="2">
+        <v>228</v>
+      </c>
+      <c r="C232" s="2">
+        <v>12350</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E232" s="2">
+        <v>237</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B233" s="2">
+        <v>229</v>
+      </c>
+      <c r="C233" s="2">
+        <v>12400</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E233" s="2">
+        <v>238</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B234" s="2">
+        <v>230</v>
+      </c>
+      <c r="C234" s="2">
+        <v>12450</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E234" s="2">
+        <v>239</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B235" s="2">
+        <v>231</v>
+      </c>
+      <c r="C235" s="2">
+        <v>12500</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E235" s="2">
+        <v>240</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B236" s="2">
+        <v>232</v>
+      </c>
+      <c r="C236" s="2">
+        <v>12550</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E236" s="2">
+        <v>241</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B237" s="2">
+        <v>233</v>
+      </c>
+      <c r="C237" s="2">
+        <v>12600</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E237" s="2">
+        <v>242</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B238" s="2">
+        <v>234</v>
+      </c>
+      <c r="C238" s="2">
+        <v>12650</v>
+      </c>
+      <c r="D238" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E238" s="2">
+        <v>243</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B239" s="2">
+        <v>235</v>
+      </c>
+      <c r="C239" s="2">
+        <v>12700</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E239" s="2">
+        <v>244</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B240" s="2">
+        <v>236</v>
+      </c>
+      <c r="C240" s="2">
+        <v>12750</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E240" s="2">
+        <v>245</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B241" s="2">
+        <v>237</v>
+      </c>
+      <c r="C241" s="2">
+        <v>12800</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E241" s="2">
+        <v>246</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B242" s="2">
+        <v>238</v>
+      </c>
+      <c r="C242" s="2">
+        <v>12850</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E242" s="2">
+        <v>247</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B243" s="2">
+        <v>239</v>
+      </c>
+      <c r="C243" s="2">
+        <v>12900</v>
+      </c>
+      <c r="D243" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E243" s="2">
+        <v>248</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B244" s="2">
+        <v>240</v>
+      </c>
+      <c r="C244" s="2">
+        <v>12950</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E244" s="2">
+        <v>249</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B245" s="2">
+        <v>241</v>
+      </c>
+      <c r="C245" s="2">
+        <v>13000</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E245" s="2">
+        <v>250</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B246" s="2">
+        <v>242</v>
+      </c>
+      <c r="C246" s="2">
+        <v>13050</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E246" s="2">
+        <v>251</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B247" s="2">
+        <v>243</v>
+      </c>
+      <c r="C247" s="2">
+        <v>13100</v>
+      </c>
+      <c r="D247" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E247" s="2">
+        <v>252</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B248" s="2">
+        <v>244</v>
+      </c>
+      <c r="C248" s="2">
+        <v>13150</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E248" s="2">
+        <v>253</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B249" s="2">
+        <v>245</v>
+      </c>
+      <c r="C249" s="2">
+        <v>13200</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E249" s="2">
+        <v>254</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B250" s="2">
+        <v>246</v>
+      </c>
+      <c r="C250" s="2">
+        <v>13250</v>
+      </c>
+      <c r="D250" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E250" s="2">
+        <v>255</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B251" s="2">
+        <v>247</v>
+      </c>
+      <c r="C251" s="2">
+        <v>13300</v>
+      </c>
+      <c r="D251" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E251" s="2">
+        <v>256</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B252" s="2">
+        <v>248</v>
+      </c>
+      <c r="C252" s="2">
+        <v>13350</v>
+      </c>
+      <c r="D252" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E252" s="2">
+        <v>257</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B253" s="2">
+        <v>249</v>
+      </c>
+      <c r="C253" s="2">
+        <v>13400</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E253" s="2">
+        <v>258</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B254" s="2">
+        <v>250</v>
+      </c>
+      <c r="C254" s="2">
+        <v>13450</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E254" s="2">
+        <v>259</v>
+      </c>
+      <c r="F254" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B255" s="2">
+        <v>251</v>
+      </c>
+      <c r="C255" s="2">
+        <v>13500</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E255" s="2">
+        <v>260</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B256" s="2">
+        <v>252</v>
+      </c>
+      <c r="C256" s="2">
+        <v>13550</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E256" s="2">
+        <v>261</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B257" s="2">
+        <v>253</v>
+      </c>
+      <c r="C257" s="2">
+        <v>13600</v>
+      </c>
+      <c r="D257" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E257" s="2">
+        <v>262</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B258" s="2">
+        <v>254</v>
+      </c>
+      <c r="C258" s="2">
+        <v>13650</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E258" s="2">
+        <v>263</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B259" s="2">
+        <v>255</v>
+      </c>
+      <c r="C259" s="2">
+        <v>13700</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E259" s="2">
+        <v>264</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B260" s="2">
+        <v>256</v>
+      </c>
+      <c r="C260" s="2">
+        <v>13750</v>
+      </c>
+      <c r="D260" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E260" s="2">
+        <v>265</v>
+      </c>
+      <c r="F260" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B261" s="2">
+        <v>257</v>
+      </c>
+      <c r="C261" s="2">
+        <v>13800</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E261" s="2">
+        <v>266</v>
+      </c>
+      <c r="F261" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B262" s="2">
+        <v>258</v>
+      </c>
+      <c r="C262" s="2">
+        <v>13850</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E262" s="2">
+        <v>267</v>
+      </c>
+      <c r="F262" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B263" s="2">
+        <v>259</v>
+      </c>
+      <c r="C263" s="2">
+        <v>13900</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E263" s="2">
+        <v>268</v>
+      </c>
+      <c r="F263" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B264" s="2">
+        <v>260</v>
+      </c>
+      <c r="C264" s="2">
+        <v>13950</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E264" s="2">
+        <v>269</v>
+      </c>
+      <c r="F264" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B265" s="2">
+        <v>261</v>
+      </c>
+      <c r="C265" s="2">
+        <v>14000</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E265" s="2">
+        <v>270</v>
+      </c>
+      <c r="F265" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B266" s="2">
+        <v>262</v>
+      </c>
+      <c r="C266" s="2">
+        <v>14050</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E266" s="2">
+        <v>271</v>
+      </c>
+      <c r="F266" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B267" s="2">
+        <v>263</v>
+      </c>
+      <c r="C267" s="2">
+        <v>14100</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E267" s="2">
+        <v>272</v>
+      </c>
+      <c r="F267" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B268" s="2">
+        <v>264</v>
+      </c>
+      <c r="C268" s="2">
+        <v>14150</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E268" s="2">
+        <v>273</v>
+      </c>
+      <c r="F268" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B269" s="2">
+        <v>265</v>
+      </c>
+      <c r="C269" s="2">
+        <v>14200</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E269" s="2">
+        <v>274</v>
+      </c>
+      <c r="F269" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B270" s="2">
+        <v>266</v>
+      </c>
+      <c r="C270" s="2">
+        <v>14250</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E270" s="2">
+        <v>275</v>
+      </c>
+      <c r="F270" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B271" s="2">
+        <v>267</v>
+      </c>
+      <c r="C271" s="2">
+        <v>14300</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E271" s="2">
+        <v>276</v>
+      </c>
+      <c r="F271" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B272" s="2">
+        <v>268</v>
+      </c>
+      <c r="C272" s="2">
+        <v>14350</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E272" s="2">
+        <v>277</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B273" s="2">
+        <v>269</v>
+      </c>
+      <c r="C273" s="2">
+        <v>14400</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E273" s="2">
+        <v>278</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B274" s="2">
+        <v>270</v>
+      </c>
+      <c r="C274" s="2">
+        <v>14450</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E274" s="2">
+        <v>279</v>
+      </c>
+      <c r="F274" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B275" s="2">
+        <v>271</v>
+      </c>
+      <c r="C275" s="2">
+        <v>14500</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E275" s="2">
+        <v>280</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B276" s="2">
+        <v>272</v>
+      </c>
+      <c r="C276" s="2">
+        <v>14550</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E276" s="2">
+        <v>281</v>
+      </c>
+      <c r="F276" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B277" s="2">
+        <v>273</v>
+      </c>
+      <c r="C277" s="2">
+        <v>14600</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E277" s="2">
+        <v>282</v>
+      </c>
+      <c r="F277" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B278" s="2">
+        <v>274</v>
+      </c>
+      <c r="C278" s="2">
+        <v>14650</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E278" s="2">
+        <v>283</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B279" s="2">
+        <v>275</v>
+      </c>
+      <c r="C279" s="2">
+        <v>14700</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E279" s="2">
+        <v>284</v>
+      </c>
+      <c r="F279" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/_ConfigExcels/Datas/player_attr_level.xlsx
+++ b/_ConfigExcels/Datas/player_attr_level.xlsx
@@ -1351,7 +1351,7 @@
   <dimension ref="A1:F279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E5:E279"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_ConfigExcels/Datas/player_attr_level.xlsx
+++ b/_ConfigExcels/Datas/player_attr_level.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mine\Project\MiniGame_EarthDefender\_ConfigExcels\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23490" windowHeight="10560"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="289">
   <si>
     <t>##var</t>
   </si>
@@ -40,39 +35,30 @@
     <t>level</t>
   </si>
   <si>
+    <t>basic_hp</t>
+  </si>
+  <si>
+    <t>basic_atk</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>城防血量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic_hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>basic_atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Beans.Com_ValueResPair</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>v</t>
     </r>
     <r>
@@ -80,16 +66,22 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>alue</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>i</t>
     </r>
     <r>
@@ -97,57 +89,56 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>tem_require</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>城防血量</t>
   </si>
   <si>
     <t>需求资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害</t>
   </si>
   <si>
     <t>1|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|3</t>
   </si>
   <si>
     <t>1|4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|5</t>
   </si>
   <si>
     <t>1|6</t>
   </si>
   <si>
+    <t>1|7</t>
+  </si>
+  <si>
     <t>1|8</t>
   </si>
   <si>
+    <t>1|9</t>
+  </si>
+  <si>
     <t>1|10</t>
-  </si>
-  <si>
-    <t>1|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|3</t>
-  </si>
-  <si>
-    <t>1|4</t>
-  </si>
-  <si>
-    <t>1|5</t>
-  </si>
-  <si>
-    <t>1|7</t>
-  </si>
-  <si>
-    <t>1|9</t>
   </si>
   <si>
     <t>1|11</t>
@@ -948,8 +939,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,14 +959,6 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -977,12 +966,147 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -995,8 +1119,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1045,46 +1355,313 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="17" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1342,19 +1919,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="14.375" style="2" customWidth="1"/>
@@ -1368,4759 +1945,4759 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>1000</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2">
         <v>1050</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>1100</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>12</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2">
         <v>1150</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>13</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="2">
         <v>1200</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>14</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>1250</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>17</v>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>15</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6">
       <c r="B11" s="2">
         <v>7</v>
       </c>
       <c r="C11" s="2">
         <v>1300</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>16</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="2">
         <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>1350</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
+      <c r="D12" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="2">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="2">
         <v>9</v>
       </c>
       <c r="C13" s="2">
         <v>1400</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E13" s="2">
         <v>18</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="2">
         <v>10</v>
       </c>
       <c r="C14" s="2">
         <v>1450</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>19</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="2">
         <v>11</v>
       </c>
       <c r="C15" s="2">
         <v>1500</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E15" s="2">
         <v>20</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="2">
         <v>12</v>
       </c>
       <c r="C16" s="2">
         <v>1550</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>27</v>
+      <c r="D16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="2">
         <v>21</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="2">
         <v>13</v>
       </c>
       <c r="C17" s="2">
         <v>1600</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>28</v>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="2">
         <v>22</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="2">
         <v>14</v>
       </c>
       <c r="C18" s="2">
         <v>1650</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>29</v>
+      <c r="D18" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E18" s="2">
         <v>23</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="2">
         <v>15</v>
       </c>
       <c r="C19" s="2">
         <v>1700</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>30</v>
+      <c r="D19" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E19" s="2">
         <v>24</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="2">
         <v>16</v>
       </c>
       <c r="C20" s="2">
         <v>1750</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>31</v>
+      <c r="D20" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E20" s="2">
         <v>25</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" s="2">
         <v>17</v>
       </c>
       <c r="C21" s="2">
         <v>1800</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>32</v>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E21" s="2">
         <v>26</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" s="2">
         <v>18</v>
       </c>
       <c r="C22" s="2">
         <v>1850</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>33</v>
+      <c r="D22" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E22" s="2">
         <v>27</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
       <c r="B23" s="2">
         <v>19</v>
       </c>
       <c r="C23" s="2">
         <v>1900</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>34</v>
+      <c r="D23" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="E23" s="2">
         <v>28</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
       <c r="B24" s="2">
         <v>20</v>
       </c>
       <c r="C24" s="2">
         <v>1950</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>35</v>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E24" s="2">
         <v>29</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="2">
         <v>21</v>
       </c>
       <c r="C25" s="2">
         <v>2000</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>36</v>
+      <c r="D25" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E25" s="2">
         <v>30</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="2">
         <v>22</v>
       </c>
       <c r="C26" s="2">
         <v>2050</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>37</v>
+      <c r="D26" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E26" s="2">
         <v>31</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F26" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="2">
         <v>23</v>
       </c>
       <c r="C27" s="2">
         <v>2100</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>38</v>
+      <c r="D27" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E27" s="2">
         <v>32</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="2">
         <v>24</v>
       </c>
       <c r="C28" s="2">
         <v>2150</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>39</v>
+      <c r="D28" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E28" s="2">
         <v>33</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F28" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="2">
         <v>25</v>
       </c>
       <c r="C29" s="2">
         <v>2200</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>40</v>
+      <c r="D29" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E29" s="2">
         <v>34</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="2">
         <v>26</v>
       </c>
       <c r="C30" s="2">
         <v>2250</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>41</v>
+      <c r="D30" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E30" s="2">
         <v>35</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="2">
         <v>27</v>
       </c>
       <c r="C31" s="2">
         <v>2300</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>42</v>
+      <c r="D31" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E31" s="2">
         <v>36</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="2">
         <v>28</v>
       </c>
       <c r="C32" s="2">
         <v>2350</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>43</v>
+      <c r="D32" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E32" s="2">
         <v>37</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="2">
         <v>29</v>
       </c>
       <c r="C33" s="2">
         <v>2400</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>44</v>
+      <c r="D33" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E33" s="2">
         <v>38</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="2">
         <v>30</v>
       </c>
       <c r="C34" s="2">
         <v>2450</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>45</v>
+      <c r="D34" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E34" s="2">
         <v>39</v>
       </c>
-      <c r="F34" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="2">
         <v>31</v>
       </c>
       <c r="C35" s="2">
         <v>2500</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>46</v>
+      <c r="D35" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="E35" s="2">
         <v>40</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="2">
         <v>32</v>
       </c>
       <c r="C36" s="2">
         <v>2550</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>47</v>
+      <c r="D36" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="E36" s="2">
         <v>41</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="2">
         <v>33</v>
       </c>
       <c r="C37" s="2">
         <v>2600</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>48</v>
+      <c r="D37" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E37" s="2">
         <v>42</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="2">
         <v>34</v>
       </c>
       <c r="C38" s="2">
         <v>2650</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>49</v>
+      <c r="D38" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E38" s="2">
         <v>43</v>
       </c>
-      <c r="F38" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="2">
         <v>35</v>
       </c>
       <c r="C39" s="2">
         <v>2700</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>50</v>
+      <c r="D39" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E39" s="2">
         <v>44</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="2">
         <v>36</v>
       </c>
       <c r="C40" s="2">
         <v>2750</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>51</v>
+      <c r="D40" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E40" s="2">
         <v>45</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="2">
         <v>37</v>
       </c>
       <c r="C41" s="2">
         <v>2800</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>52</v>
+      <c r="D41" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E41" s="2">
         <v>46</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="2">
         <v>38</v>
       </c>
       <c r="C42" s="2">
         <v>2850</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>53</v>
+      <c r="D42" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E42" s="2">
         <v>47</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="2">
         <v>39</v>
       </c>
       <c r="C43" s="2">
         <v>2900</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>54</v>
+      <c r="D43" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E43" s="2">
         <v>48</v>
       </c>
-      <c r="F43" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="2">
         <v>40</v>
       </c>
       <c r="C44" s="2">
         <v>2950</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>55</v>
+      <c r="D44" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E44" s="2">
         <v>49</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="2">
         <v>41</v>
       </c>
       <c r="C45" s="2">
         <v>3000</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>56</v>
+      <c r="D45" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E45" s="2">
         <v>50</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="2">
         <v>42</v>
       </c>
       <c r="C46" s="2">
         <v>3050</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>57</v>
+      <c r="D46" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="E46" s="2">
         <v>51</v>
       </c>
-      <c r="F46" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="2">
         <v>43</v>
       </c>
       <c r="C47" s="2">
         <v>3100</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>58</v>
+      <c r="D47" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E47" s="2">
         <v>52</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="2">
         <v>44</v>
       </c>
       <c r="C48" s="2">
         <v>3150</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>59</v>
+      <c r="D48" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E48" s="2">
         <v>53</v>
       </c>
-      <c r="F48" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="2">
         <v>45</v>
       </c>
       <c r="C49" s="2">
         <v>3200</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>60</v>
+      <c r="D49" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E49" s="2">
         <v>54</v>
       </c>
-      <c r="F49" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="2">
         <v>46</v>
       </c>
       <c r="C50" s="2">
         <v>3250</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>61</v>
+      <c r="D50" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E50" s="2">
         <v>55</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="2">
         <v>47</v>
       </c>
       <c r="C51" s="2">
         <v>3300</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>62</v>
+      <c r="D51" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E51" s="2">
         <v>56</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" s="2">
         <v>48</v>
       </c>
       <c r="C52" s="2">
         <v>3350</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>63</v>
+      <c r="D52" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E52" s="2">
         <v>57</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="2">
         <v>49</v>
       </c>
       <c r="C53" s="2">
         <v>3400</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>64</v>
+      <c r="D53" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E53" s="2">
         <v>58</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="2">
         <v>50</v>
       </c>
       <c r="C54" s="2">
         <v>3450</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>65</v>
+      <c r="D54" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E54" s="2">
         <v>59</v>
       </c>
-      <c r="F54" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="2">
         <v>51</v>
       </c>
       <c r="C55" s="2">
         <v>3500</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>66</v>
+      <c r="D55" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="E55" s="2">
         <v>60</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="2">
         <v>52</v>
       </c>
       <c r="C56" s="2">
         <v>3550</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>67</v>
+      <c r="D56" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E56" s="2">
         <v>61</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="2">
         <v>53</v>
       </c>
       <c r="C57" s="2">
         <v>3600</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>68</v>
+      <c r="D57" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="E57" s="2">
         <v>62</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" s="2">
         <v>54</v>
       </c>
       <c r="C58" s="2">
         <v>3650</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>69</v>
+      <c r="D58" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="E58" s="2">
         <v>63</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" s="2">
         <v>55</v>
       </c>
       <c r="C59" s="2">
         <v>3700</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>70</v>
+      <c r="D59" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E59" s="2">
         <v>64</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" s="2">
         <v>56</v>
       </c>
       <c r="C60" s="2">
         <v>3750</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>71</v>
+      <c r="D60" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="E60" s="2">
         <v>65</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" s="2">
         <v>57</v>
       </c>
       <c r="C61" s="2">
         <v>3800</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>72</v>
+      <c r="D61" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="E61" s="2">
         <v>66</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" s="2">
         <v>58</v>
       </c>
       <c r="C62" s="2">
         <v>3850</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>73</v>
+      <c r="D62" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E62" s="2">
         <v>67</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
       <c r="B63" s="2">
         <v>59</v>
       </c>
       <c r="C63" s="2">
         <v>3900</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>74</v>
+      <c r="D63" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E63" s="2">
         <v>68</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
       <c r="B64" s="2">
         <v>60</v>
       </c>
       <c r="C64" s="2">
         <v>3950</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>75</v>
+      <c r="D64" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E64" s="2">
         <v>69</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" s="2">
         <v>61</v>
       </c>
       <c r="C65" s="2">
         <v>4000</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>76</v>
+      <c r="D65" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="E65" s="2">
         <v>70</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" s="2">
         <v>62</v>
       </c>
       <c r="C66" s="2">
         <v>4050</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>77</v>
+      <c r="D66" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E66" s="2">
         <v>71</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
       <c r="B67" s="2">
         <v>63</v>
       </c>
       <c r="C67" s="2">
         <v>4100</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>78</v>
+      <c r="D67" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="E67" s="2">
         <v>72</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" s="2">
         <v>64</v>
       </c>
       <c r="C68" s="2">
         <v>4150</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>79</v>
+      <c r="D68" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E68" s="2">
         <v>73</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" s="2">
         <v>65</v>
       </c>
       <c r="C69" s="2">
         <v>4200</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>80</v>
+      <c r="D69" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E69" s="2">
         <v>74</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70" s="2">
         <v>66</v>
       </c>
       <c r="C70" s="2">
         <v>4250</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>81</v>
+      <c r="D70" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="E70" s="2">
         <v>75</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
       <c r="B71" s="2">
         <v>67</v>
       </c>
       <c r="C71" s="2">
         <v>4300</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>82</v>
+      <c r="D71" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="E71" s="2">
         <v>76</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6">
       <c r="B72" s="2">
         <v>68</v>
       </c>
       <c r="C72" s="2">
         <v>4350</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>83</v>
+      <c r="D72" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="E72" s="2">
         <v>77</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" s="2">
         <v>69</v>
       </c>
       <c r="C73" s="2">
         <v>4400</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>84</v>
+      <c r="D73" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="E73" s="2">
         <v>78</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
       <c r="B74" s="2">
         <v>70</v>
       </c>
       <c r="C74" s="2">
         <v>4450</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>85</v>
+      <c r="D74" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="E74" s="2">
         <v>79</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
       <c r="B75" s="2">
         <v>71</v>
       </c>
       <c r="C75" s="2">
         <v>4500</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>86</v>
+      <c r="D75" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="E75" s="2">
         <v>80</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
       <c r="B76" s="2">
         <v>72</v>
       </c>
       <c r="C76" s="2">
         <v>4550</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>87</v>
+      <c r="D76" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="E76" s="2">
         <v>81</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
       <c r="B77" s="2">
         <v>73</v>
       </c>
       <c r="C77" s="2">
         <v>4600</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>88</v>
+      <c r="D77" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="E77" s="2">
         <v>82</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
       <c r="B78" s="2">
         <v>74</v>
       </c>
       <c r="C78" s="2">
         <v>4650</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>89</v>
+      <c r="D78" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="E78" s="2">
         <v>83</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
       <c r="B79" s="2">
         <v>75</v>
       </c>
       <c r="C79" s="2">
         <v>4700</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>90</v>
+      <c r="D79" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="E79" s="2">
         <v>84</v>
       </c>
-      <c r="F79" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
       <c r="B80" s="2">
         <v>76</v>
       </c>
       <c r="C80" s="2">
         <v>4750</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>91</v>
+      <c r="D80" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="E80" s="2">
         <v>85</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
       <c r="B81" s="2">
         <v>77</v>
       </c>
       <c r="C81" s="2">
         <v>4800</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>92</v>
+      <c r="D81" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="E81" s="2">
         <v>86</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
       <c r="B82" s="2">
         <v>78</v>
       </c>
       <c r="C82" s="2">
         <v>4850</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>93</v>
+      <c r="D82" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E82" s="2">
         <v>87</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
       <c r="B83" s="2">
         <v>79</v>
       </c>
       <c r="C83" s="2">
         <v>4900</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>94</v>
+      <c r="D83" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="E83" s="2">
         <v>88</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
       <c r="B84" s="2">
         <v>80</v>
       </c>
       <c r="C84" s="2">
         <v>4950</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>95</v>
+      <c r="D84" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="E84" s="2">
         <v>89</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
       <c r="B85" s="2">
         <v>81</v>
       </c>
       <c r="C85" s="2">
         <v>5000</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>96</v>
+      <c r="D85" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="E85" s="2">
         <v>90</v>
       </c>
-      <c r="F85" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
       <c r="B86" s="2">
         <v>82</v>
       </c>
       <c r="C86" s="2">
         <v>5050</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>97</v>
+      <c r="D86" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="E86" s="2">
         <v>91</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F86" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
       <c r="B87" s="2">
         <v>83</v>
       </c>
       <c r="C87" s="2">
         <v>5100</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>98</v>
+      <c r="D87" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="E87" s="2">
         <v>92</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
       <c r="B88" s="2">
         <v>84</v>
       </c>
       <c r="C88" s="2">
         <v>5150</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>99</v>
+      <c r="D88" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="E88" s="2">
         <v>93</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F88" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
       <c r="B89" s="2">
         <v>85</v>
       </c>
       <c r="C89" s="2">
         <v>5200</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>100</v>
+      <c r="D89" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="E89" s="2">
         <v>94</v>
       </c>
-      <c r="F89" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
       <c r="B90" s="2">
         <v>86</v>
       </c>
       <c r="C90" s="2">
         <v>5250</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>101</v>
+      <c r="D90" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="E90" s="2">
         <v>95</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F90" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
       <c r="B91" s="2">
         <v>87</v>
       </c>
       <c r="C91" s="2">
         <v>5300</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>102</v>
+      <c r="D91" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="E91" s="2">
         <v>96</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
       <c r="B92" s="2">
         <v>88</v>
       </c>
       <c r="C92" s="2">
         <v>5350</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>103</v>
+      <c r="D92" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="E92" s="2">
         <v>97</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F92" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
       <c r="B93" s="2">
         <v>89</v>
       </c>
       <c r="C93" s="2">
         <v>5400</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>104</v>
+      <c r="D93" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="E93" s="2">
         <v>98</v>
       </c>
-      <c r="F93" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
       <c r="B94" s="2">
         <v>90</v>
       </c>
       <c r="C94" s="2">
         <v>5450</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>105</v>
+      <c r="D94" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="E94" s="2">
         <v>99</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F94" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
       <c r="B95" s="2">
         <v>91</v>
       </c>
       <c r="C95" s="2">
         <v>5500</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>106</v>
+      <c r="D95" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="E95" s="2">
         <v>100</v>
       </c>
-      <c r="F95" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F95" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6">
       <c r="B96" s="2">
         <v>92</v>
       </c>
       <c r="C96" s="2">
         <v>5550</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>107</v>
+      <c r="D96" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="E96" s="2">
         <v>101</v>
       </c>
-      <c r="F96" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F96" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
       <c r="B97" s="2">
         <v>93</v>
       </c>
       <c r="C97" s="2">
         <v>5600</v>
       </c>
-      <c r="D97" s="4" t="s">
-        <v>108</v>
+      <c r="D97" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="E97" s="2">
         <v>102</v>
       </c>
-      <c r="F97" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
       <c r="B98" s="2">
         <v>94</v>
       </c>
       <c r="C98" s="2">
         <v>5650</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>109</v>
+      <c r="D98" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E98" s="2">
         <v>103</v>
       </c>
-      <c r="F98" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
       <c r="B99" s="2">
         <v>95</v>
       </c>
       <c r="C99" s="2">
         <v>5700</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>110</v>
+      <c r="D99" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="E99" s="2">
         <v>104</v>
       </c>
-      <c r="F99" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
       <c r="B100" s="2">
         <v>96</v>
       </c>
       <c r="C100" s="2">
         <v>5750</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>111</v>
+      <c r="D100" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E100" s="2">
         <v>105</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F100" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6">
       <c r="B101" s="2">
         <v>97</v>
       </c>
       <c r="C101" s="2">
         <v>5800</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>112</v>
+      <c r="D101" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="E101" s="2">
         <v>106</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
       <c r="B102" s="2">
         <v>98</v>
       </c>
       <c r="C102" s="2">
         <v>5850</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>113</v>
+      <c r="D102" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E102" s="2">
         <v>107</v>
       </c>
-      <c r="F102" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F102" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
       <c r="B103" s="2">
         <v>99</v>
       </c>
       <c r="C103" s="2">
         <v>5900</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>114</v>
+      <c r="D103" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="E103" s="2">
         <v>108</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
       <c r="B104" s="2">
         <v>100</v>
       </c>
       <c r="C104" s="2">
         <v>5950</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>115</v>
+      <c r="D104" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="E104" s="2">
         <v>109</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
       <c r="B105" s="2">
         <v>101</v>
       </c>
       <c r="C105" s="2">
         <v>6000</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>116</v>
+      <c r="D105" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="E105" s="2">
         <v>110</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6">
       <c r="B106" s="2">
         <v>102</v>
       </c>
       <c r="C106" s="2">
         <v>6050</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>117</v>
+      <c r="D106" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="E106" s="2">
         <v>111</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
       <c r="B107" s="2">
         <v>103</v>
       </c>
       <c r="C107" s="2">
         <v>6100</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>118</v>
+      <c r="D107" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="E107" s="2">
         <v>112</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
       <c r="B108" s="2">
         <v>104</v>
       </c>
       <c r="C108" s="2">
         <v>6150</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>119</v>
+      <c r="D108" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="E108" s="2">
         <v>113</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F108" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
       <c r="B109" s="2">
         <v>105</v>
       </c>
       <c r="C109" s="2">
         <v>6200</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>120</v>
+      <c r="D109" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="E109" s="2">
         <v>114</v>
       </c>
-      <c r="F109" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F109" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
       <c r="B110" s="2">
         <v>106</v>
       </c>
       <c r="C110" s="2">
         <v>6250</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>121</v>
+      <c r="D110" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="E110" s="2">
         <v>115</v>
       </c>
-      <c r="F110" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F110" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
       <c r="B111" s="2">
         <v>107</v>
       </c>
       <c r="C111" s="2">
         <v>6300</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>122</v>
+      <c r="D111" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="E111" s="2">
         <v>116</v>
       </c>
-      <c r="F111" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F111" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
       <c r="B112" s="2">
         <v>108</v>
       </c>
       <c r="C112" s="2">
         <v>6350</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>123</v>
+      <c r="D112" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="E112" s="2">
         <v>117</v>
       </c>
-      <c r="F112" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F112" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
       <c r="B113" s="2">
         <v>109</v>
       </c>
       <c r="C113" s="2">
         <v>6400</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>124</v>
+      <c r="D113" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="E113" s="2">
         <v>118</v>
       </c>
-      <c r="F113" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F113" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
       <c r="B114" s="2">
         <v>110</v>
       </c>
       <c r="C114" s="2">
         <v>6450</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>125</v>
+      <c r="D114" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="E114" s="2">
         <v>119</v>
       </c>
-      <c r="F114" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F114" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
       <c r="B115" s="2">
         <v>111</v>
       </c>
       <c r="C115" s="2">
         <v>6500</v>
       </c>
-      <c r="D115" s="4" t="s">
-        <v>126</v>
+      <c r="D115" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="E115" s="2">
         <v>120</v>
       </c>
-      <c r="F115" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F115" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
       <c r="B116" s="2">
         <v>112</v>
       </c>
       <c r="C116" s="2">
         <v>6550</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>127</v>
+      <c r="D116" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E116" s="2">
         <v>121</v>
       </c>
-      <c r="F116" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
       <c r="B117" s="2">
         <v>113</v>
       </c>
       <c r="C117" s="2">
         <v>6600</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>128</v>
+      <c r="D117" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="E117" s="2">
         <v>122</v>
       </c>
-      <c r="F117" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F117" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
       <c r="B118" s="2">
         <v>114</v>
       </c>
       <c r="C118" s="2">
         <v>6650</v>
       </c>
-      <c r="D118" s="4" t="s">
-        <v>129</v>
+      <c r="D118" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="E118" s="2">
         <v>123</v>
       </c>
-      <c r="F118" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F118" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
       <c r="B119" s="2">
         <v>115</v>
       </c>
       <c r="C119" s="2">
         <v>6700</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>130</v>
+      <c r="D119" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="E119" s="2">
         <v>124</v>
       </c>
-      <c r="F119" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F119" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
       <c r="B120" s="2">
         <v>116</v>
       </c>
       <c r="C120" s="2">
         <v>6750</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>131</v>
+      <c r="D120" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="E120" s="2">
         <v>125</v>
       </c>
-      <c r="F120" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F120" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
       <c r="B121" s="2">
         <v>117</v>
       </c>
       <c r="C121" s="2">
         <v>6800</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>132</v>
+      <c r="D121" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="E121" s="2">
         <v>126</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F121" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
       <c r="B122" s="2">
         <v>118</v>
       </c>
       <c r="C122" s="2">
         <v>6850</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>133</v>
+      <c r="D122" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="E122" s="2">
         <v>127</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F122" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
       <c r="B123" s="2">
         <v>119</v>
       </c>
       <c r="C123" s="2">
         <v>6900</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>134</v>
+      <c r="D123" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="E123" s="2">
         <v>128</v>
       </c>
-      <c r="F123" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F123" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
       <c r="B124" s="2">
         <v>120</v>
       </c>
       <c r="C124" s="2">
         <v>6950</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>135</v>
+      <c r="D124" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="E124" s="2">
         <v>129</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F124" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
       <c r="B125" s="2">
         <v>121</v>
       </c>
       <c r="C125" s="2">
         <v>7000</v>
       </c>
-      <c r="D125" s="4" t="s">
-        <v>136</v>
+      <c r="D125" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="E125" s="2">
         <v>130</v>
       </c>
-      <c r="F125" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
       <c r="B126" s="2">
         <v>122</v>
       </c>
       <c r="C126" s="2">
         <v>7050</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>137</v>
+      <c r="D126" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="E126" s="2">
         <v>131</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
       <c r="B127" s="2">
         <v>123</v>
       </c>
       <c r="C127" s="2">
         <v>7100</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>138</v>
+      <c r="D127" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="E127" s="2">
         <v>132</v>
       </c>
-      <c r="F127" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
       <c r="B128" s="2">
         <v>124</v>
       </c>
       <c r="C128" s="2">
         <v>7150</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>139</v>
+      <c r="D128" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="E128" s="2">
         <v>133</v>
       </c>
-      <c r="F128" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
       <c r="B129" s="2">
         <v>125</v>
       </c>
       <c r="C129" s="2">
         <v>7200</v>
       </c>
-      <c r="D129" s="4" t="s">
-        <v>140</v>
+      <c r="D129" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="E129" s="2">
         <v>134</v>
       </c>
-      <c r="F129" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F129" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
       <c r="B130" s="2">
         <v>126</v>
       </c>
       <c r="C130" s="2">
         <v>7250</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>141</v>
+      <c r="D130" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="E130" s="2">
         <v>135</v>
       </c>
-      <c r="F130" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F130" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
       <c r="B131" s="2">
         <v>127</v>
       </c>
       <c r="C131" s="2">
         <v>7300</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>142</v>
+      <c r="D131" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="E131" s="2">
         <v>136</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F131" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
       <c r="B132" s="2">
         <v>128</v>
       </c>
       <c r="C132" s="2">
         <v>7350</v>
       </c>
-      <c r="D132" s="4" t="s">
-        <v>143</v>
+      <c r="D132" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="E132" s="2">
         <v>137</v>
       </c>
-      <c r="F132" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F132" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
       <c r="B133" s="2">
         <v>129</v>
       </c>
       <c r="C133" s="2">
         <v>7400</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>144</v>
+      <c r="D133" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="E133" s="2">
         <v>138</v>
       </c>
-      <c r="F133" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F133" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
       <c r="B134" s="2">
         <v>130</v>
       </c>
       <c r="C134" s="2">
         <v>7450</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>145</v>
+      <c r="D134" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="E134" s="2">
         <v>139</v>
       </c>
-      <c r="F134" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F134" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
       <c r="B135" s="2">
         <v>131</v>
       </c>
       <c r="C135" s="2">
         <v>7500</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>146</v>
+      <c r="D135" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="E135" s="2">
         <v>140</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F135" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6">
       <c r="B136" s="2">
         <v>132</v>
       </c>
       <c r="C136" s="2">
         <v>7550</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>147</v>
+      <c r="D136" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="E136" s="2">
         <v>141</v>
       </c>
-      <c r="F136" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F136" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6">
       <c r="B137" s="2">
         <v>133</v>
       </c>
       <c r="C137" s="2">
         <v>7600</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>148</v>
+      <c r="D137" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="E137" s="2">
         <v>142</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F137" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6">
       <c r="B138" s="2">
         <v>134</v>
       </c>
       <c r="C138" s="2">
         <v>7650</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>149</v>
+      <c r="D138" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="E138" s="2">
         <v>143</v>
       </c>
-      <c r="F138" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F138" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6">
       <c r="B139" s="2">
         <v>135</v>
       </c>
       <c r="C139" s="2">
         <v>7700</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>150</v>
+      <c r="D139" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="E139" s="2">
         <v>144</v>
       </c>
-      <c r="F139" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F139" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6">
       <c r="B140" s="2">
         <v>136</v>
       </c>
       <c r="C140" s="2">
         <v>7750</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>151</v>
+      <c r="D140" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="E140" s="2">
         <v>145</v>
       </c>
-      <c r="F140" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F140" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6">
       <c r="B141" s="2">
         <v>137</v>
       </c>
       <c r="C141" s="2">
         <v>7800</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>152</v>
+      <c r="D141" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="E141" s="2">
         <v>146</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F141" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
       <c r="B142" s="2">
         <v>138</v>
       </c>
       <c r="C142" s="2">
         <v>7850</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>153</v>
+      <c r="D142" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="E142" s="2">
         <v>147</v>
       </c>
-      <c r="F142" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F142" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
       <c r="B143" s="2">
         <v>139</v>
       </c>
       <c r="C143" s="2">
         <v>7900</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>154</v>
+      <c r="D143" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="E143" s="2">
         <v>148</v>
       </c>
-      <c r="F143" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F143" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
       <c r="B144" s="2">
         <v>140</v>
       </c>
       <c r="C144" s="2">
         <v>7950</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>155</v>
+      <c r="D144" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="E144" s="2">
         <v>149</v>
       </c>
-      <c r="F144" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F144" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6">
       <c r="B145" s="2">
         <v>141</v>
       </c>
       <c r="C145" s="2">
         <v>8000</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>156</v>
+      <c r="D145" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="E145" s="2">
         <v>150</v>
       </c>
-      <c r="F145" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F145" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6">
       <c r="B146" s="2">
         <v>142</v>
       </c>
       <c r="C146" s="2">
         <v>8050</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>157</v>
+      <c r="D146" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="E146" s="2">
         <v>151</v>
       </c>
-      <c r="F146" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F146" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6">
       <c r="B147" s="2">
         <v>143</v>
       </c>
       <c r="C147" s="2">
         <v>8100</v>
       </c>
-      <c r="D147" s="4" t="s">
-        <v>158</v>
+      <c r="D147" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="E147" s="2">
         <v>152</v>
       </c>
-      <c r="F147" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F147" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6">
       <c r="B148" s="2">
         <v>144</v>
       </c>
       <c r="C148" s="2">
         <v>8150</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>159</v>
+      <c r="D148" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="E148" s="2">
         <v>153</v>
       </c>
-      <c r="F148" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F148" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6">
       <c r="B149" s="2">
         <v>145</v>
       </c>
       <c r="C149" s="2">
         <v>8200</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>160</v>
+      <c r="D149" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E149" s="2">
         <v>154</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F149" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6">
       <c r="B150" s="2">
         <v>146</v>
       </c>
       <c r="C150" s="2">
         <v>8250</v>
       </c>
-      <c r="D150" s="4" t="s">
-        <v>161</v>
+      <c r="D150" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="E150" s="2">
         <v>155</v>
       </c>
-      <c r="F150" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F150" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
       <c r="B151" s="2">
         <v>147</v>
       </c>
       <c r="C151" s="2">
         <v>8300</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>162</v>
+      <c r="D151" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="E151" s="2">
         <v>156</v>
       </c>
-      <c r="F151" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F151" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
       <c r="B152" s="2">
         <v>148</v>
       </c>
       <c r="C152" s="2">
         <v>8350</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>163</v>
+      <c r="D152" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="E152" s="2">
         <v>157</v>
       </c>
-      <c r="F152" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F152" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
       <c r="B153" s="2">
         <v>149</v>
       </c>
       <c r="C153" s="2">
         <v>8400</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>164</v>
+      <c r="D153" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="E153" s="2">
         <v>158</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F153" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6">
       <c r="B154" s="2">
         <v>150</v>
       </c>
       <c r="C154" s="2">
         <v>8450</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>165</v>
+      <c r="D154" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="E154" s="2">
         <v>159</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F154" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
       <c r="B155" s="2">
         <v>151</v>
       </c>
       <c r="C155" s="2">
         <v>8500</v>
       </c>
-      <c r="D155" s="4" t="s">
-        <v>166</v>
+      <c r="D155" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="E155" s="2">
         <v>160</v>
       </c>
-      <c r="F155" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F155" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6">
       <c r="B156" s="2">
         <v>152</v>
       </c>
       <c r="C156" s="2">
         <v>8550</v>
       </c>
-      <c r="D156" s="4" t="s">
-        <v>167</v>
+      <c r="D156" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="E156" s="2">
         <v>161</v>
       </c>
-      <c r="F156" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F156" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6">
       <c r="B157" s="2">
         <v>153</v>
       </c>
       <c r="C157" s="2">
         <v>8600</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>168</v>
+      <c r="D157" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="E157" s="2">
         <v>162</v>
       </c>
-      <c r="F157" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F157" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6">
       <c r="B158" s="2">
         <v>154</v>
       </c>
       <c r="C158" s="2">
         <v>8650</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>169</v>
+      <c r="D158" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="E158" s="2">
         <v>163</v>
       </c>
-      <c r="F158" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F158" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6">
       <c r="B159" s="2">
         <v>155</v>
       </c>
       <c r="C159" s="2">
         <v>8700</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>170</v>
+      <c r="D159" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="E159" s="2">
         <v>164</v>
       </c>
-      <c r="F159" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F159" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6">
       <c r="B160" s="2">
         <v>156</v>
       </c>
       <c r="C160" s="2">
         <v>8750</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>171</v>
+      <c r="D160" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="E160" s="2">
         <v>165</v>
       </c>
-      <c r="F160" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F160" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
       <c r="B161" s="2">
         <v>157</v>
       </c>
       <c r="C161" s="2">
         <v>8800</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>172</v>
+      <c r="D161" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="E161" s="2">
         <v>166</v>
       </c>
-      <c r="F161" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F161" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
       <c r="B162" s="2">
         <v>158</v>
       </c>
       <c r="C162" s="2">
         <v>8850</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>173</v>
+      <c r="D162" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="E162" s="2">
         <v>167</v>
       </c>
-      <c r="F162" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F162" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
       <c r="B163" s="2">
         <v>159</v>
       </c>
       <c r="C163" s="2">
         <v>8900</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>174</v>
+      <c r="D163" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="E163" s="2">
         <v>168</v>
       </c>
-      <c r="F163" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F163" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6">
       <c r="B164" s="2">
         <v>160</v>
       </c>
       <c r="C164" s="2">
         <v>8950</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>175</v>
+      <c r="D164" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="E164" s="2">
         <v>169</v>
       </c>
-      <c r="F164" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F164" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6">
       <c r="B165" s="2">
         <v>161</v>
       </c>
       <c r="C165" s="2">
         <v>9000</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>176</v>
+      <c r="D165" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="E165" s="2">
         <v>170</v>
       </c>
-      <c r="F165" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F165" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
       <c r="B166" s="2">
         <v>162</v>
       </c>
       <c r="C166" s="2">
         <v>9050</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>177</v>
+      <c r="D166" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E166" s="2">
         <v>171</v>
       </c>
-      <c r="F166" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F166" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
       <c r="B167" s="2">
         <v>163</v>
       </c>
       <c r="C167" s="2">
         <v>9100</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>178</v>
+      <c r="D167" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E167" s="2">
         <v>172</v>
       </c>
-      <c r="F167" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F167" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
       <c r="B168" s="2">
         <v>164</v>
       </c>
       <c r="C168" s="2">
         <v>9150</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>179</v>
+      <c r="D168" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="E168" s="2">
         <v>173</v>
       </c>
-      <c r="F168" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F168" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
       <c r="B169" s="2">
         <v>165</v>
       </c>
       <c r="C169" s="2">
         <v>9200</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>180</v>
+      <c r="D169" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="E169" s="2">
         <v>174</v>
       </c>
-      <c r="F169" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F169" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
       <c r="B170" s="2">
         <v>166</v>
       </c>
       <c r="C170" s="2">
         <v>9250</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>181</v>
+      <c r="D170" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="E170" s="2">
         <v>175</v>
       </c>
-      <c r="F170" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F170" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
       <c r="B171" s="2">
         <v>167</v>
       </c>
       <c r="C171" s="2">
         <v>9300</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>182</v>
+      <c r="D171" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="E171" s="2">
         <v>176</v>
       </c>
-      <c r="F171" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F171" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6">
       <c r="B172" s="2">
         <v>168</v>
       </c>
       <c r="C172" s="2">
         <v>9350</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>183</v>
+      <c r="D172" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="E172" s="2">
         <v>177</v>
       </c>
-      <c r="F172" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F172" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
       <c r="B173" s="2">
         <v>169</v>
       </c>
       <c r="C173" s="2">
         <v>9400</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>184</v>
+      <c r="D173" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E173" s="2">
         <v>178</v>
       </c>
-      <c r="F173" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F173" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
       <c r="B174" s="2">
         <v>170</v>
       </c>
       <c r="C174" s="2">
         <v>9450</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>185</v>
+      <c r="D174" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="E174" s="2">
         <v>179</v>
       </c>
-      <c r="F174" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F174" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
       <c r="B175" s="2">
         <v>171</v>
       </c>
       <c r="C175" s="2">
         <v>9500</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>186</v>
+      <c r="D175" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="E175" s="2">
         <v>180</v>
       </c>
-      <c r="F175" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F175" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
       <c r="B176" s="2">
         <v>172</v>
       </c>
       <c r="C176" s="2">
         <v>9550</v>
       </c>
-      <c r="D176" s="4" t="s">
-        <v>187</v>
+      <c r="D176" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="E176" s="2">
         <v>181</v>
       </c>
-      <c r="F176" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F176" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
       <c r="B177" s="2">
         <v>173</v>
       </c>
       <c r="C177" s="2">
         <v>9600</v>
       </c>
-      <c r="D177" s="4" t="s">
-        <v>188</v>
+      <c r="D177" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="E177" s="2">
         <v>182</v>
       </c>
-      <c r="F177" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F177" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
       <c r="B178" s="2">
         <v>174</v>
       </c>
       <c r="C178" s="2">
         <v>9650</v>
       </c>
-      <c r="D178" s="4" t="s">
-        <v>189</v>
+      <c r="D178" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="E178" s="2">
         <v>183</v>
       </c>
-      <c r="F178" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F178" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
       <c r="B179" s="2">
         <v>175</v>
       </c>
       <c r="C179" s="2">
         <v>9700</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>190</v>
+      <c r="D179" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="E179" s="2">
         <v>184</v>
       </c>
-      <c r="F179" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F179" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
       <c r="B180" s="2">
         <v>176</v>
       </c>
       <c r="C180" s="2">
         <v>9750</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>191</v>
+      <c r="D180" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="E180" s="2">
         <v>185</v>
       </c>
-      <c r="F180" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F180" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
       <c r="B181" s="2">
         <v>177</v>
       </c>
       <c r="C181" s="2">
         <v>9800</v>
       </c>
-      <c r="D181" s="4" t="s">
-        <v>192</v>
+      <c r="D181" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="E181" s="2">
         <v>186</v>
       </c>
-      <c r="F181" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F181" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
       <c r="B182" s="2">
         <v>178</v>
       </c>
       <c r="C182" s="2">
         <v>9850</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>193</v>
+      <c r="D182" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="E182" s="2">
         <v>187</v>
       </c>
-      <c r="F182" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F182" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6">
       <c r="B183" s="2">
         <v>179</v>
       </c>
       <c r="C183" s="2">
         <v>9900</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>194</v>
+      <c r="D183" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="E183" s="2">
         <v>188</v>
       </c>
-      <c r="F183" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F183" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6">
       <c r="B184" s="2">
         <v>180</v>
       </c>
       <c r="C184" s="2">
         <v>9950</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>195</v>
+      <c r="D184" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="E184" s="2">
         <v>189</v>
       </c>
-      <c r="F184" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F184" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
       <c r="B185" s="2">
         <v>181</v>
       </c>
       <c r="C185" s="2">
         <v>10000</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>196</v>
+      <c r="D185" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="E185" s="2">
         <v>190</v>
       </c>
-      <c r="F185" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F185" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
       <c r="B186" s="2">
         <v>182</v>
       </c>
       <c r="C186" s="2">
         <v>10050</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>197</v>
+      <c r="D186" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="E186" s="2">
         <v>191</v>
       </c>
-      <c r="F186" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F186" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6">
       <c r="B187" s="2">
         <v>183</v>
       </c>
       <c r="C187" s="2">
         <v>10100</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>198</v>
+      <c r="D187" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="E187" s="2">
         <v>192</v>
       </c>
-      <c r="F187" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F187" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6">
       <c r="B188" s="2">
         <v>184</v>
       </c>
       <c r="C188" s="2">
         <v>10150</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>199</v>
+      <c r="D188" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="E188" s="2">
         <v>193</v>
       </c>
-      <c r="F188" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F188" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6">
       <c r="B189" s="2">
         <v>185</v>
       </c>
       <c r="C189" s="2">
         <v>10200</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>200</v>
+      <c r="D189" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="E189" s="2">
         <v>194</v>
       </c>
-      <c r="F189" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F189" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6">
       <c r="B190" s="2">
         <v>186</v>
       </c>
       <c r="C190" s="2">
         <v>10250</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>201</v>
+      <c r="D190" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="E190" s="2">
         <v>195</v>
       </c>
-      <c r="F190" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F190" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6">
       <c r="B191" s="2">
         <v>187</v>
       </c>
       <c r="C191" s="2">
         <v>10300</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>202</v>
+      <c r="D191" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="E191" s="2">
         <v>196</v>
       </c>
-      <c r="F191" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F191" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6">
       <c r="B192" s="2">
         <v>188</v>
       </c>
       <c r="C192" s="2">
         <v>10350</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>203</v>
+      <c r="D192" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="E192" s="2">
         <v>197</v>
       </c>
-      <c r="F192" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F192" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6">
       <c r="B193" s="2">
         <v>189</v>
       </c>
       <c r="C193" s="2">
         <v>10400</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>204</v>
+      <c r="D193" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="E193" s="2">
         <v>198</v>
       </c>
-      <c r="F193" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F193" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6">
       <c r="B194" s="2">
         <v>190</v>
       </c>
       <c r="C194" s="2">
         <v>10450</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>205</v>
+      <c r="D194" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="E194" s="2">
         <v>199</v>
       </c>
-      <c r="F194" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F194" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6">
       <c r="B195" s="2">
         <v>191</v>
       </c>
       <c r="C195" s="2">
         <v>10500</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>206</v>
+      <c r="D195" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="E195" s="2">
         <v>200</v>
       </c>
-      <c r="F195" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F195" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6">
       <c r="B196" s="2">
         <v>192</v>
       </c>
       <c r="C196" s="2">
         <v>10550</v>
       </c>
-      <c r="D196" s="4" t="s">
-        <v>207</v>
+      <c r="D196" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="E196" s="2">
         <v>201</v>
       </c>
-      <c r="F196" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F196" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6">
       <c r="B197" s="2">
         <v>193</v>
       </c>
       <c r="C197" s="2">
         <v>10600</v>
       </c>
-      <c r="D197" s="4" t="s">
-        <v>208</v>
+      <c r="D197" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="E197" s="2">
         <v>202</v>
       </c>
-      <c r="F197" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F197" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="198" spans="2:6">
       <c r="B198" s="2">
         <v>194</v>
       </c>
       <c r="C198" s="2">
         <v>10650</v>
       </c>
-      <c r="D198" s="4" t="s">
-        <v>209</v>
+      <c r="D198" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="E198" s="2">
         <v>203</v>
       </c>
-      <c r="F198" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F198" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="199" spans="2:6">
       <c r="B199" s="2">
         <v>195</v>
       </c>
       <c r="C199" s="2">
         <v>10700</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>210</v>
+      <c r="D199" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="E199" s="2">
         <v>204</v>
       </c>
-      <c r="F199" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F199" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="200" spans="2:6">
       <c r="B200" s="2">
         <v>196</v>
       </c>
       <c r="C200" s="2">
         <v>10750</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>211</v>
+      <c r="D200" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="E200" s="2">
         <v>205</v>
       </c>
-      <c r="F200" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F200" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="201" spans="2:6">
       <c r="B201" s="2">
         <v>197</v>
       </c>
       <c r="C201" s="2">
         <v>10800</v>
       </c>
-      <c r="D201" s="4" t="s">
-        <v>212</v>
+      <c r="D201" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="E201" s="2">
         <v>206</v>
       </c>
-      <c r="F201" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F201" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="202" spans="2:6">
       <c r="B202" s="2">
         <v>198</v>
       </c>
       <c r="C202" s="2">
         <v>10850</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>213</v>
+      <c r="D202" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="E202" s="2">
         <v>207</v>
       </c>
-      <c r="F202" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F202" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="203" spans="2:6">
       <c r="B203" s="2">
         <v>199</v>
       </c>
       <c r="C203" s="2">
         <v>10900</v>
       </c>
-      <c r="D203" s="4" t="s">
-        <v>214</v>
+      <c r="D203" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="E203" s="2">
         <v>208</v>
       </c>
-      <c r="F203" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F203" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="204" spans="2:6">
       <c r="B204" s="2">
         <v>200</v>
       </c>
       <c r="C204" s="2">
         <v>10950</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>215</v>
+      <c r="D204" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="E204" s="2">
         <v>209</v>
       </c>
-      <c r="F204" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F204" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="205" spans="2:6">
       <c r="B205" s="2">
         <v>201</v>
       </c>
       <c r="C205" s="2">
         <v>11000</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>216</v>
+      <c r="D205" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="E205" s="2">
         <v>210</v>
       </c>
-      <c r="F205" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F205" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="206" spans="2:6">
       <c r="B206" s="2">
         <v>202</v>
       </c>
       <c r="C206" s="2">
         <v>11050</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>217</v>
+      <c r="D206" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="E206" s="2">
         <v>211</v>
       </c>
-      <c r="F206" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F206" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="207" spans="2:6">
       <c r="B207" s="2">
         <v>203</v>
       </c>
       <c r="C207" s="2">
         <v>11100</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>218</v>
+      <c r="D207" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="E207" s="2">
         <v>212</v>
       </c>
-      <c r="F207" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F207" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="208" spans="2:6">
       <c r="B208" s="2">
         <v>204</v>
       </c>
       <c r="C208" s="2">
         <v>11150</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>219</v>
+      <c r="D208" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="E208" s="2">
         <v>213</v>
       </c>
-      <c r="F208" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F208" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="209" spans="2:6">
       <c r="B209" s="2">
         <v>205</v>
       </c>
       <c r="C209" s="2">
         <v>11200</v>
       </c>
-      <c r="D209" s="4" t="s">
-        <v>220</v>
+      <c r="D209" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="E209" s="2">
         <v>214</v>
       </c>
-      <c r="F209" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F209" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="210" spans="2:6">
       <c r="B210" s="2">
         <v>206</v>
       </c>
       <c r="C210" s="2">
         <v>11250</v>
       </c>
-      <c r="D210" s="4" t="s">
-        <v>221</v>
+      <c r="D210" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="E210" s="2">
         <v>215</v>
       </c>
-      <c r="F210" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F210" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="211" spans="2:6">
       <c r="B211" s="2">
         <v>207</v>
       </c>
       <c r="C211" s="2">
         <v>11300</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>222</v>
+      <c r="D211" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="E211" s="2">
         <v>216</v>
       </c>
-      <c r="F211" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F211" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="212" spans="2:6">
       <c r="B212" s="2">
         <v>208</v>
       </c>
       <c r="C212" s="2">
         <v>11350</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>223</v>
+      <c r="D212" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="E212" s="2">
         <v>217</v>
       </c>
-      <c r="F212" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F212" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="213" spans="2:6">
       <c r="B213" s="2">
         <v>209</v>
       </c>
       <c r="C213" s="2">
         <v>11400</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>224</v>
+      <c r="D213" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="E213" s="2">
         <v>218</v>
       </c>
-      <c r="F213" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F213" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="214" spans="2:6">
       <c r="B214" s="2">
         <v>210</v>
       </c>
       <c r="C214" s="2">
         <v>11450</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>225</v>
+      <c r="D214" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="E214" s="2">
         <v>219</v>
       </c>
-      <c r="F214" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F214" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="215" spans="2:6">
       <c r="B215" s="2">
         <v>211</v>
       </c>
       <c r="C215" s="2">
         <v>11500</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>226</v>
+      <c r="D215" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="E215" s="2">
         <v>220</v>
       </c>
-      <c r="F215" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F215" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="216" spans="2:6">
       <c r="B216" s="2">
         <v>212</v>
       </c>
       <c r="C216" s="2">
         <v>11550</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>227</v>
+      <c r="D216" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="E216" s="2">
         <v>221</v>
       </c>
-      <c r="F216" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F216" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="217" spans="2:6">
       <c r="B217" s="2">
         <v>213</v>
       </c>
       <c r="C217" s="2">
         <v>11600</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>228</v>
+      <c r="D217" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E217" s="2">
         <v>222</v>
       </c>
-      <c r="F217" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F217" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="218" spans="2:6">
       <c r="B218" s="2">
         <v>214</v>
       </c>
       <c r="C218" s="2">
         <v>11650</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>229</v>
+      <c r="D218" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="E218" s="2">
         <v>223</v>
       </c>
-      <c r="F218" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F218" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="219" spans="2:6">
       <c r="B219" s="2">
         <v>215</v>
       </c>
       <c r="C219" s="2">
         <v>11700</v>
       </c>
-      <c r="D219" s="4" t="s">
-        <v>230</v>
+      <c r="D219" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="E219" s="2">
         <v>224</v>
       </c>
-      <c r="F219" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F219" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="220" spans="2:6">
       <c r="B220" s="2">
         <v>216</v>
       </c>
       <c r="C220" s="2">
         <v>11750</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>231</v>
+      <c r="D220" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="E220" s="2">
         <v>225</v>
       </c>
-      <c r="F220" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F220" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="221" spans="2:6">
       <c r="B221" s="2">
         <v>217</v>
       </c>
       <c r="C221" s="2">
         <v>11800</v>
       </c>
-      <c r="D221" s="4" t="s">
-        <v>232</v>
+      <c r="D221" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="E221" s="2">
         <v>226</v>
       </c>
-      <c r="F221" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F221" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="222" spans="2:6">
       <c r="B222" s="2">
         <v>218</v>
       </c>
       <c r="C222" s="2">
         <v>11850</v>
       </c>
-      <c r="D222" s="4" t="s">
-        <v>233</v>
+      <c r="D222" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="E222" s="2">
         <v>227</v>
       </c>
-      <c r="F222" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F222" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="223" spans="2:6">
       <c r="B223" s="2">
         <v>219</v>
       </c>
       <c r="C223" s="2">
         <v>11900</v>
       </c>
-      <c r="D223" s="4" t="s">
-        <v>234</v>
+      <c r="D223" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="E223" s="2">
         <v>228</v>
       </c>
-      <c r="F223" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F223" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="224" spans="2:6">
       <c r="B224" s="2">
         <v>220</v>
       </c>
       <c r="C224" s="2">
         <v>11950</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>235</v>
+      <c r="D224" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="E224" s="2">
         <v>229</v>
       </c>
-      <c r="F224" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F224" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="225" spans="2:6">
       <c r="B225" s="2">
         <v>221</v>
       </c>
       <c r="C225" s="2">
         <v>12000</v>
       </c>
-      <c r="D225" s="4" t="s">
-        <v>236</v>
+      <c r="D225" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="E225" s="2">
         <v>230</v>
       </c>
-      <c r="F225" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F225" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="226" spans="2:6">
       <c r="B226" s="2">
         <v>222</v>
       </c>
       <c r="C226" s="2">
         <v>12050</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>237</v>
+      <c r="D226" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="E226" s="2">
         <v>231</v>
       </c>
-      <c r="F226" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F226" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="227" spans="2:6">
       <c r="B227" s="2">
         <v>223</v>
       </c>
       <c r="C227" s="2">
         <v>12100</v>
       </c>
-      <c r="D227" s="4" t="s">
-        <v>238</v>
+      <c r="D227" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="E227" s="2">
         <v>232</v>
       </c>
-      <c r="F227" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F227" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="228" spans="2:6">
       <c r="B228" s="2">
         <v>224</v>
       </c>
       <c r="C228" s="2">
         <v>12150</v>
       </c>
-      <c r="D228" s="4" t="s">
-        <v>239</v>
+      <c r="D228" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="E228" s="2">
         <v>233</v>
       </c>
-      <c r="F228" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F228" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="229" spans="2:6">
       <c r="B229" s="2">
         <v>225</v>
       </c>
       <c r="C229" s="2">
         <v>12200</v>
       </c>
-      <c r="D229" s="4" t="s">
-        <v>240</v>
+      <c r="D229" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="E229" s="2">
         <v>234</v>
       </c>
-      <c r="F229" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F229" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="230" spans="2:6">
       <c r="B230" s="2">
         <v>226</v>
       </c>
       <c r="C230" s="2">
         <v>12250</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>241</v>
+      <c r="D230" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="E230" s="2">
         <v>235</v>
       </c>
-      <c r="F230" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F230" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="231" spans="2:6">
       <c r="B231" s="2">
         <v>227</v>
       </c>
       <c r="C231" s="2">
         <v>12300</v>
       </c>
-      <c r="D231" s="4" t="s">
-        <v>242</v>
+      <c r="D231" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="E231" s="2">
         <v>236</v>
       </c>
-      <c r="F231" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F231" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="232" spans="2:6">
       <c r="B232" s="2">
         <v>228</v>
       </c>
       <c r="C232" s="2">
         <v>12350</v>
       </c>
-      <c r="D232" s="4" t="s">
-        <v>243</v>
+      <c r="D232" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="E232" s="2">
         <v>237</v>
       </c>
-      <c r="F232" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F232" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="233" spans="2:6">
       <c r="B233" s="2">
         <v>229</v>
       </c>
       <c r="C233" s="2">
         <v>12400</v>
       </c>
-      <c r="D233" s="4" t="s">
-        <v>244</v>
+      <c r="D233" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="E233" s="2">
         <v>238</v>
       </c>
-      <c r="F233" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F233" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="234" spans="2:6">
       <c r="B234" s="2">
         <v>230</v>
       </c>
       <c r="C234" s="2">
         <v>12450</v>
       </c>
-      <c r="D234" s="4" t="s">
-        <v>245</v>
+      <c r="D234" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="E234" s="2">
         <v>239</v>
       </c>
-      <c r="F234" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F234" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="235" spans="2:6">
       <c r="B235" s="2">
         <v>231</v>
       </c>
       <c r="C235" s="2">
         <v>12500</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>246</v>
+      <c r="D235" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="E235" s="2">
         <v>240</v>
       </c>
-      <c r="F235" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F235" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6">
       <c r="B236" s="2">
         <v>232</v>
       </c>
       <c r="C236" s="2">
         <v>12550</v>
       </c>
-      <c r="D236" s="4" t="s">
-        <v>247</v>
+      <c r="D236" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="E236" s="2">
         <v>241</v>
       </c>
-      <c r="F236" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F236" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="237" spans="2:6">
       <c r="B237" s="2">
         <v>233</v>
       </c>
       <c r="C237" s="2">
         <v>12600</v>
       </c>
-      <c r="D237" s="4" t="s">
-        <v>248</v>
+      <c r="D237" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="E237" s="2">
         <v>242</v>
       </c>
-      <c r="F237" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F237" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6">
       <c r="B238" s="2">
         <v>234</v>
       </c>
       <c r="C238" s="2">
         <v>12650</v>
       </c>
-      <c r="D238" s="4" t="s">
-        <v>249</v>
+      <c r="D238" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="E238" s="2">
         <v>243</v>
       </c>
-      <c r="F238" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F238" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6">
       <c r="B239" s="2">
         <v>235</v>
       </c>
       <c r="C239" s="2">
         <v>12700</v>
       </c>
-      <c r="D239" s="4" t="s">
-        <v>250</v>
+      <c r="D239" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="E239" s="2">
         <v>244</v>
       </c>
-      <c r="F239" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F239" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6">
       <c r="B240" s="2">
         <v>236</v>
       </c>
       <c r="C240" s="2">
         <v>12750</v>
       </c>
-      <c r="D240" s="4" t="s">
-        <v>251</v>
+      <c r="D240" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="E240" s="2">
         <v>245</v>
       </c>
-      <c r="F240" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F240" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6">
       <c r="B241" s="2">
         <v>237</v>
       </c>
       <c r="C241" s="2">
         <v>12800</v>
       </c>
-      <c r="D241" s="4" t="s">
-        <v>252</v>
+      <c r="D241" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="E241" s="2">
         <v>246</v>
       </c>
-      <c r="F241" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F241" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="242" spans="2:6">
       <c r="B242" s="2">
         <v>238</v>
       </c>
       <c r="C242" s="2">
         <v>12850</v>
       </c>
-      <c r="D242" s="4" t="s">
-        <v>253</v>
+      <c r="D242" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="E242" s="2">
         <v>247</v>
       </c>
-      <c r="F242" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F242" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6">
       <c r="B243" s="2">
         <v>239</v>
       </c>
       <c r="C243" s="2">
         <v>12900</v>
       </c>
-      <c r="D243" s="4" t="s">
-        <v>254</v>
+      <c r="D243" s="6" t="s">
+        <v>252</v>
       </c>
       <c r="E243" s="2">
         <v>248</v>
       </c>
-      <c r="F243" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F243" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6">
       <c r="B244" s="2">
         <v>240</v>
       </c>
       <c r="C244" s="2">
         <v>12950</v>
       </c>
-      <c r="D244" s="4" t="s">
-        <v>255</v>
+      <c r="D244" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="E244" s="2">
         <v>249</v>
       </c>
-      <c r="F244" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F244" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6">
       <c r="B245" s="2">
         <v>241</v>
       </c>
       <c r="C245" s="2">
         <v>13000</v>
       </c>
-      <c r="D245" s="4" t="s">
-        <v>256</v>
+      <c r="D245" s="6" t="s">
+        <v>254</v>
       </c>
       <c r="E245" s="2">
         <v>250</v>
       </c>
-      <c r="F245" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F245" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6">
       <c r="B246" s="2">
         <v>242</v>
       </c>
       <c r="C246" s="2">
         <v>13050</v>
       </c>
-      <c r="D246" s="4" t="s">
-        <v>257</v>
+      <c r="D246" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="E246" s="2">
         <v>251</v>
       </c>
-      <c r="F246" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F246" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6">
       <c r="B247" s="2">
         <v>243</v>
       </c>
       <c r="C247" s="2">
         <v>13100</v>
       </c>
-      <c r="D247" s="4" t="s">
-        <v>258</v>
+      <c r="D247" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E247" s="2">
         <v>252</v>
       </c>
-      <c r="F247" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F247" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6">
       <c r="B248" s="2">
         <v>244</v>
       </c>
       <c r="C248" s="2">
         <v>13150</v>
       </c>
-      <c r="D248" s="4" t="s">
-        <v>259</v>
+      <c r="D248" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="E248" s="2">
         <v>253</v>
       </c>
-      <c r="F248" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F248" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6">
       <c r="B249" s="2">
         <v>245</v>
       </c>
       <c r="C249" s="2">
         <v>13200</v>
       </c>
-      <c r="D249" s="4" t="s">
-        <v>260</v>
+      <c r="D249" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="E249" s="2">
         <v>254</v>
       </c>
-      <c r="F249" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F249" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
       <c r="B250" s="2">
         <v>246</v>
       </c>
       <c r="C250" s="2">
         <v>13250</v>
       </c>
-      <c r="D250" s="4" t="s">
-        <v>261</v>
+      <c r="D250" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="E250" s="2">
         <v>255</v>
       </c>
-      <c r="F250" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F250" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="251" spans="2:6">
       <c r="B251" s="2">
         <v>247</v>
       </c>
       <c r="C251" s="2">
         <v>13300</v>
       </c>
-      <c r="D251" s="4" t="s">
-        <v>262</v>
+      <c r="D251" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="E251" s="2">
         <v>256</v>
       </c>
-      <c r="F251" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F251" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6">
       <c r="B252" s="2">
         <v>248</v>
       </c>
       <c r="C252" s="2">
         <v>13350</v>
       </c>
-      <c r="D252" s="4" t="s">
-        <v>263</v>
+      <c r="D252" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="E252" s="2">
         <v>257</v>
       </c>
-      <c r="F252" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F252" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="253" spans="2:6">
       <c r="B253" s="2">
         <v>249</v>
       </c>
       <c r="C253" s="2">
         <v>13400</v>
       </c>
-      <c r="D253" s="4" t="s">
-        <v>264</v>
+      <c r="D253" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="E253" s="2">
         <v>258</v>
       </c>
-      <c r="F253" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F253" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="254" spans="2:6">
       <c r="B254" s="2">
         <v>250</v>
       </c>
       <c r="C254" s="2">
         <v>13450</v>
       </c>
-      <c r="D254" s="4" t="s">
-        <v>265</v>
+      <c r="D254" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="E254" s="2">
         <v>259</v>
       </c>
-      <c r="F254" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F254" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="255" spans="2:6">
       <c r="B255" s="2">
         <v>251</v>
       </c>
       <c r="C255" s="2">
         <v>13500</v>
       </c>
-      <c r="D255" s="4" t="s">
-        <v>266</v>
+      <c r="D255" s="6" t="s">
+        <v>264</v>
       </c>
       <c r="E255" s="2">
         <v>260</v>
       </c>
-      <c r="F255" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F255" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="256" spans="2:6">
       <c r="B256" s="2">
         <v>252</v>
       </c>
       <c r="C256" s="2">
         <v>13550</v>
       </c>
-      <c r="D256" s="4" t="s">
-        <v>267</v>
+      <c r="D256" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="E256" s="2">
         <v>261</v>
       </c>
-      <c r="F256" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F256" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6">
       <c r="B257" s="2">
         <v>253</v>
       </c>
       <c r="C257" s="2">
         <v>13600</v>
       </c>
-      <c r="D257" s="4" t="s">
-        <v>268</v>
+      <c r="D257" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="E257" s="2">
         <v>262</v>
       </c>
-      <c r="F257" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F257" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6">
       <c r="B258" s="2">
         <v>254</v>
       </c>
       <c r="C258" s="2">
         <v>13650</v>
       </c>
-      <c r="D258" s="4" t="s">
-        <v>269</v>
+      <c r="D258" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="E258" s="2">
         <v>263</v>
       </c>
-      <c r="F258" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F258" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="259" spans="2:6">
       <c r="B259" s="2">
         <v>255</v>
       </c>
       <c r="C259" s="2">
         <v>13700</v>
       </c>
-      <c r="D259" s="4" t="s">
-        <v>270</v>
+      <c r="D259" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="E259" s="2">
         <v>264</v>
       </c>
-      <c r="F259" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F259" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6">
       <c r="B260" s="2">
         <v>256</v>
       </c>
       <c r="C260" s="2">
         <v>13750</v>
       </c>
-      <c r="D260" s="4" t="s">
-        <v>271</v>
+      <c r="D260" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="E260" s="2">
         <v>265</v>
       </c>
-      <c r="F260" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F260" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6">
       <c r="B261" s="2">
         <v>257</v>
       </c>
       <c r="C261" s="2">
         <v>13800</v>
       </c>
-      <c r="D261" s="4" t="s">
-        <v>272</v>
+      <c r="D261" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="E261" s="2">
         <v>266</v>
       </c>
-      <c r="F261" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F261" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6">
       <c r="B262" s="2">
         <v>258</v>
       </c>
       <c r="C262" s="2">
         <v>13850</v>
       </c>
-      <c r="D262" s="4" t="s">
-        <v>273</v>
+      <c r="D262" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="E262" s="2">
         <v>267</v>
       </c>
-      <c r="F262" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F262" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6">
       <c r="B263" s="2">
         <v>259</v>
       </c>
       <c r="C263" s="2">
         <v>13900</v>
       </c>
-      <c r="D263" s="4" t="s">
-        <v>274</v>
+      <c r="D263" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="E263" s="2">
         <v>268</v>
       </c>
-      <c r="F263" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F263" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6">
       <c r="B264" s="2">
         <v>260</v>
       </c>
       <c r="C264" s="2">
         <v>13950</v>
       </c>
-      <c r="D264" s="4" t="s">
-        <v>275</v>
+      <c r="D264" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="E264" s="2">
         <v>269</v>
       </c>
-      <c r="F264" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F264" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6">
       <c r="B265" s="2">
         <v>261</v>
       </c>
       <c r="C265" s="2">
         <v>14000</v>
       </c>
-      <c r="D265" s="4" t="s">
-        <v>276</v>
+      <c r="D265" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="E265" s="2">
         <v>270</v>
       </c>
-      <c r="F265" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F265" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6">
       <c r="B266" s="2">
         <v>262</v>
       </c>
       <c r="C266" s="2">
         <v>14050</v>
       </c>
-      <c r="D266" s="4" t="s">
-        <v>277</v>
+      <c r="D266" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="E266" s="2">
         <v>271</v>
       </c>
-      <c r="F266" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F266" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6">
       <c r="B267" s="2">
         <v>263</v>
       </c>
       <c r="C267" s="2">
         <v>14100</v>
       </c>
-      <c r="D267" s="4" t="s">
-        <v>278</v>
+      <c r="D267" s="6" t="s">
+        <v>276</v>
       </c>
       <c r="E267" s="2">
         <v>272</v>
       </c>
-      <c r="F267" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F267" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6">
       <c r="B268" s="2">
         <v>264</v>
       </c>
       <c r="C268" s="2">
         <v>14150</v>
       </c>
-      <c r="D268" s="4" t="s">
-        <v>279</v>
+      <c r="D268" s="6" t="s">
+        <v>277</v>
       </c>
       <c r="E268" s="2">
         <v>273</v>
       </c>
-      <c r="F268" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F268" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6">
       <c r="B269" s="2">
         <v>265</v>
       </c>
       <c r="C269" s="2">
         <v>14200</v>
       </c>
-      <c r="D269" s="4" t="s">
-        <v>280</v>
+      <c r="D269" s="6" t="s">
+        <v>278</v>
       </c>
       <c r="E269" s="2">
         <v>274</v>
       </c>
-      <c r="F269" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F269" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6">
       <c r="B270" s="2">
         <v>266</v>
       </c>
       <c r="C270" s="2">
         <v>14250</v>
       </c>
-      <c r="D270" s="4" t="s">
-        <v>281</v>
+      <c r="D270" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="E270" s="2">
         <v>275</v>
       </c>
-      <c r="F270" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F270" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6">
       <c r="B271" s="2">
         <v>267</v>
       </c>
       <c r="C271" s="2">
         <v>14300</v>
       </c>
-      <c r="D271" s="4" t="s">
-        <v>282</v>
+      <c r="D271" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="E271" s="2">
         <v>276</v>
       </c>
-      <c r="F271" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F271" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6">
       <c r="B272" s="2">
         <v>268</v>
       </c>
       <c r="C272" s="2">
         <v>14350</v>
       </c>
-      <c r="D272" s="4" t="s">
-        <v>283</v>
+      <c r="D272" s="6" t="s">
+        <v>281</v>
       </c>
       <c r="E272" s="2">
         <v>277</v>
       </c>
-      <c r="F272" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F272" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="273" spans="2:6">
       <c r="B273" s="2">
         <v>269</v>
       </c>
       <c r="C273" s="2">
         <v>14400</v>
       </c>
-      <c r="D273" s="4" t="s">
-        <v>284</v>
+      <c r="D273" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="E273" s="2">
         <v>278</v>
       </c>
-      <c r="F273" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F273" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="274" spans="2:6">
       <c r="B274" s="2">
         <v>270</v>
       </c>
       <c r="C274" s="2">
         <v>14450</v>
       </c>
-      <c r="D274" s="4" t="s">
-        <v>285</v>
+      <c r="D274" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="E274" s="2">
         <v>279</v>
       </c>
-      <c r="F274" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F274" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="275" spans="2:6">
       <c r="B275" s="2">
         <v>271</v>
       </c>
       <c r="C275" s="2">
         <v>14500</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>286</v>
+      <c r="D275" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="E275" s="2">
         <v>280</v>
       </c>
-      <c r="F275" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F275" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="276" spans="2:6">
       <c r="B276" s="2">
         <v>272</v>
       </c>
       <c r="C276" s="2">
         <v>14550</v>
       </c>
-      <c r="D276" s="4" t="s">
-        <v>287</v>
+      <c r="D276" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="E276" s="2">
         <v>281</v>
       </c>
-      <c r="F276" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F276" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="277" spans="2:6">
       <c r="B277" s="2">
         <v>273</v>
       </c>
       <c r="C277" s="2">
         <v>14600</v>
       </c>
-      <c r="D277" s="4" t="s">
-        <v>288</v>
+      <c r="D277" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="E277" s="2">
         <v>282</v>
       </c>
-      <c r="F277" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F277" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="278" spans="2:6">
       <c r="B278" s="2">
         <v>274</v>
       </c>
       <c r="C278" s="2">
         <v>14650</v>
       </c>
-      <c r="D278" s="4" t="s">
-        <v>289</v>
+      <c r="D278" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="E278" s="2">
         <v>283</v>
       </c>
-      <c r="F278" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F278" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="279" spans="2:6">
       <c r="B279" s="2">
         <v>275</v>
       </c>
       <c r="C279" s="2">
         <v>14700</v>
       </c>
-      <c r="D279" s="4" t="s">
-        <v>290</v>
+      <c r="D279" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="E279" s="2">
         <v>284</v>
       </c>
-      <c r="F279" s="4" t="s">
-        <v>18</v>
+      <c r="F279" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>